--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>731873</v>
+        <v>732626</v>
       </c>
       <c r="D2">
-        <v>155749</v>
+        <v>155757</v>
       </c>
       <c r="E2">
-        <v>1372628290</v>
+        <v>1375303215</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>1835672</v>
+        <v>1848743</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D4">
         <v>177</v>
       </c>
       <c r="E4">
-        <v>4572015</v>
+        <v>4580935</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3795</v>
+        <v>3808</v>
       </c>
       <c r="D8">
         <v>617</v>
       </c>
       <c r="E8">
-        <v>26736003</v>
+        <v>27111773</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>321381</v>
+        <v>321739</v>
       </c>
       <c r="D10">
-        <v>64038</v>
+        <v>64044</v>
       </c>
       <c r="E10">
-        <v>1666768633</v>
+        <v>1669923959</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D11">
         <v>246</v>
       </c>
       <c r="E11">
-        <v>34757073</v>
+        <v>35050287</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>4675117</v>
+        <v>5075117</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>172988</v>
+        <v>173224</v>
       </c>
       <c r="D13">
-        <v>33024</v>
+        <v>33027</v>
       </c>
       <c r="E13">
-        <v>1009886658</v>
+        <v>1012445527</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1026,13 +1026,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
       <c r="E14">
-        <v>750971</v>
+        <v>765467</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9668</v>
+        <v>9689</v>
       </c>
       <c r="D16">
         <v>2981</v>
       </c>
       <c r="E16">
-        <v>25960196</v>
+        <v>26058723</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1142,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D18">
         <v>67</v>
       </c>
       <c r="E18">
-        <v>1396792</v>
+        <v>1398292</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>24810</v>
+        <v>24897</v>
       </c>
       <c r="D19">
         <v>4181</v>
       </c>
       <c r="E19">
-        <v>111029023</v>
+        <v>111551376</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1200,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>114903</v>
+        <v>124903</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>167782</v>
+        <v>167884</v>
       </c>
       <c r="D21">
-        <v>37995</v>
+        <v>37999</v>
       </c>
       <c r="E21">
-        <v>306225323</v>
+        <v>306497505</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D26">
         <v>171</v>
       </c>
       <c r="E26">
-        <v>6037014</v>
+        <v>6047014</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>84311</v>
+        <v>84375</v>
       </c>
       <c r="D27">
-        <v>17529</v>
+        <v>17530</v>
       </c>
       <c r="E27">
-        <v>410425371</v>
+        <v>410918868</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D28">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>6523135</v>
+        <v>6540292</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>32699</v>
+        <v>32717</v>
       </c>
       <c r="D30">
-        <v>6498</v>
+        <v>6500</v>
       </c>
       <c r="E30">
-        <v>174688476</v>
+        <v>174756541</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4322</v>
+        <v>4327</v>
       </c>
       <c r="D33">
         <v>1327</v>
       </c>
       <c r="E33">
-        <v>19086529</v>
+        <v>19098919</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>6393</v>
+        <v>6407</v>
       </c>
       <c r="D35">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E35">
-        <v>28715781</v>
+        <v>28774765</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>202524</v>
+        <v>202654</v>
       </c>
       <c r="D36">
-        <v>48098</v>
+        <v>48101</v>
       </c>
       <c r="E36">
-        <v>391098985</v>
+        <v>391397784</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4631</v>
+        <v>4634</v>
       </c>
       <c r="D39">
         <v>643</v>
       </c>
       <c r="E39">
-        <v>31095368</v>
+        <v>31121574</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>119482</v>
+        <v>119583</v>
       </c>
       <c r="D41">
-        <v>24223</v>
+        <v>24224</v>
       </c>
       <c r="E41">
-        <v>619537363</v>
+        <v>620500087</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>27467</v>
+        <v>27503</v>
       </c>
       <c r="D44">
         <v>5489</v>
       </c>
       <c r="E44">
-        <v>178375601</v>
+        <v>178647005</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="D46">
         <v>832</v>
       </c>
       <c r="E46">
-        <v>7736079</v>
+        <v>7768630</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8552</v>
+        <v>8575</v>
       </c>
       <c r="D47">
         <v>1463</v>
       </c>
       <c r="E47">
-        <v>39695874</v>
+        <v>39896409</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>144255</v>
+        <v>144331</v>
       </c>
       <c r="D48">
         <v>33477</v>
       </c>
       <c r="E48">
-        <v>265743061</v>
+        <v>265893745</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2128,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D52">
         <v>257</v>
       </c>
       <c r="E52">
-        <v>9643205</v>
+        <v>9655953</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>70500</v>
+        <v>70540</v>
       </c>
       <c r="D54">
-        <v>14888</v>
+        <v>14889</v>
       </c>
       <c r="E54">
-        <v>332478881</v>
+        <v>332734776</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>29486</v>
+        <v>29504</v>
       </c>
       <c r="D57">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="E57">
-        <v>147230537</v>
+        <v>147329291</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>3420</v>
+        <v>3424</v>
       </c>
       <c r="D59">
         <v>938</v>
       </c>
       <c r="E59">
-        <v>14747169</v>
+        <v>14776171</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5558</v>
+        <v>5568</v>
       </c>
       <c r="D61">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E61">
-        <v>21800537</v>
+        <v>21853752</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>47192</v>
+        <v>47224</v>
       </c>
       <c r="D63">
-        <v>9520</v>
+        <v>9521</v>
       </c>
       <c r="E63">
-        <v>99940418</v>
+        <v>100064498</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>25628</v>
+        <v>25648</v>
       </c>
       <c r="D67">
         <v>4259</v>
       </c>
       <c r="E67">
-        <v>157181946</v>
+        <v>157438982</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2592,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>1510468</v>
+        <v>1581049</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>16835</v>
+        <v>16851</v>
       </c>
       <c r="D69">
         <v>2894</v>
       </c>
       <c r="E69">
-        <v>96129009</v>
+        <v>96451130</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D71">
         <v>158</v>
       </c>
       <c r="E71">
-        <v>3399965</v>
+        <v>3402381</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>316010</v>
+        <v>316233</v>
       </c>
       <c r="D72">
-        <v>71573</v>
+        <v>71577</v>
       </c>
       <c r="E72">
-        <v>611173773</v>
+        <v>611827169</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2737,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D73">
         <v>101</v>
       </c>
       <c r="E73">
-        <v>1740667</v>
+        <v>1750667</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="D76">
         <v>312</v>
       </c>
       <c r="E76">
-        <v>11934644</v>
+        <v>11950001</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>166249</v>
+        <v>166384</v>
       </c>
       <c r="D78">
-        <v>34641</v>
+        <v>34642</v>
       </c>
       <c r="E78">
-        <v>820467952</v>
+        <v>821618978</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D79">
         <v>126</v>
       </c>
       <c r="E79">
-        <v>15917700</v>
+        <v>15936668</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>81707</v>
+        <v>81801</v>
       </c>
       <c r="D81">
-        <v>16510</v>
+        <v>16511</v>
       </c>
       <c r="E81">
-        <v>440274209</v>
+        <v>441039828</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>25016</v>
+        <v>25073</v>
       </c>
       <c r="D84">
         <v>6713</v>
       </c>
       <c r="E84">
-        <v>143717535</v>
+        <v>144130608</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>10183</v>
+        <v>10211</v>
       </c>
       <c r="D86">
         <v>1735</v>
       </c>
       <c r="E86">
-        <v>44498027</v>
+        <v>44669626</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>61251</v>
+        <v>61303</v>
       </c>
       <c r="D88">
-        <v>12263</v>
+        <v>12265</v>
       </c>
       <c r="E88">
-        <v>97411667</v>
+        <v>97508748</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>14986</v>
+        <v>14995</v>
       </c>
       <c r="D91">
         <v>3289</v>
       </c>
       <c r="E91">
-        <v>49130323</v>
+        <v>49187066</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13798</v>
+        <v>13817</v>
       </c>
       <c r="D93">
         <v>2815</v>
       </c>
       <c r="E93">
-        <v>35971371</v>
+        <v>36096529</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>24828</v>
+        <v>24837</v>
       </c>
       <c r="D96">
         <v>3736</v>
       </c>
       <c r="E96">
-        <v>49601000</v>
+        <v>49613937</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>5316</v>
+        <v>5318</v>
       </c>
       <c r="D98">
         <v>901</v>
       </c>
       <c r="E98">
-        <v>15236426</v>
+        <v>15253817</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -3520,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>7845</v>
+        <v>7847</v>
       </c>
       <c r="D100">
         <v>1264</v>
       </c>
       <c r="E100">
-        <v>19570590</v>
+        <v>19590078</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>305440</v>
+        <v>305604</v>
       </c>
       <c r="D104">
-        <v>67842</v>
+        <v>67844</v>
       </c>
       <c r="E104">
-        <v>542633022</v>
+        <v>543018939</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="D110">
         <v>620</v>
       </c>
       <c r="E110">
-        <v>26384958</v>
+        <v>26397171</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>135455</v>
+        <v>135585</v>
       </c>
       <c r="D112">
-        <v>27796</v>
+        <v>27797</v>
       </c>
       <c r="E112">
-        <v>656591203</v>
+        <v>657643104</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>75657</v>
+        <v>75724</v>
       </c>
       <c r="D115">
-        <v>14380</v>
+        <v>14381</v>
       </c>
       <c r="E115">
-        <v>388876648</v>
+        <v>389564588</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>3546</v>
+        <v>3554</v>
       </c>
       <c r="D118">
         <v>1088</v>
       </c>
       <c r="E118">
-        <v>11452568</v>
+        <v>11501428</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>8246</v>
+        <v>8269</v>
       </c>
       <c r="D119">
         <v>1415</v>
       </c>
       <c r="E119">
-        <v>33630673</v>
+        <v>33753250</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1224347</v>
+        <v>1225153</v>
       </c>
       <c r="D121">
-        <v>219976</v>
+        <v>219989</v>
       </c>
       <c r="E121">
-        <v>2169126271</v>
+        <v>2170950542</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4158,13 +4158,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D122">
         <v>47</v>
       </c>
       <c r="E122">
-        <v>935673</v>
+        <v>936661</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
@@ -4187,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D123">
         <v>130</v>
       </c>
       <c r="E123">
-        <v>3733134</v>
+        <v>3734026</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>7746</v>
+        <v>7766</v>
       </c>
       <c r="D127">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E127">
-        <v>89560992</v>
+        <v>89895743</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>571009</v>
+        <v>571599</v>
       </c>
       <c r="D129">
-        <v>104617</v>
+        <v>104622</v>
       </c>
       <c r="E129">
-        <v>2907239234</v>
+        <v>2912060354</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4390,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>3361</v>
+        <v>3367</v>
       </c>
       <c r="D130">
         <v>608</v>
       </c>
       <c r="E130">
-        <v>95610007</v>
+        <v>96105750</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D131">
         <v>53</v>
       </c>
       <c r="E131">
-        <v>13589645</v>
+        <v>13663077</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>526327</v>
+        <v>526889</v>
       </c>
       <c r="D132">
-        <v>90159</v>
+        <v>90169</v>
       </c>
       <c r="E132">
-        <v>2772531794</v>
+        <v>2778917709</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4506,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>6557</v>
+        <v>6562</v>
       </c>
       <c r="D134">
         <v>1670</v>
       </c>
       <c r="E134">
-        <v>15143147</v>
+        <v>15159147</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>23514</v>
+        <v>23576</v>
       </c>
       <c r="D136">
         <v>4224</v>
       </c>
       <c r="E136">
-        <v>112203687</v>
+        <v>112598207</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
@@ -4651,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>70983</v>
+        <v>71009</v>
       </c>
       <c r="D139">
         <v>17461</v>
       </c>
       <c r="E139">
-        <v>107566722</v>
+        <v>107619318</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>21780</v>
+        <v>21794</v>
       </c>
       <c r="D144">
         <v>6122</v>
       </c>
       <c r="E144">
-        <v>68101712</v>
+        <v>68160668</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4825,13 +4825,13 @@
         <v>10</v>
       </c>
       <c r="C145">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145">
         <v>12</v>
       </c>
       <c r="E145">
-        <v>2691289</v>
+        <v>2731008</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>6362</v>
+        <v>6368</v>
       </c>
       <c r="D146">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E146">
-        <v>22528909</v>
+        <v>22585838</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4941,13 +4941,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D149">
         <v>169</v>
       </c>
       <c r="E149">
-        <v>984868</v>
+        <v>986368</v>
       </c>
       <c r="F149" t="s">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>33284</v>
+        <v>33300</v>
       </c>
       <c r="D151">
         <v>7102</v>
       </c>
       <c r="E151">
-        <v>52653493</v>
+        <v>52681733</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>14242</v>
+        <v>14248</v>
       </c>
       <c r="D154">
         <v>3211</v>
       </c>
       <c r="E154">
-        <v>48211215</v>
+        <v>48245989</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>9976</v>
+        <v>9979</v>
       </c>
       <c r="D156">
         <v>2093</v>
       </c>
       <c r="E156">
-        <v>27815806</v>
+        <v>27835189</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -5231,13 +5231,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>43192</v>
+        <v>43203</v>
       </c>
       <c r="D159">
         <v>5415</v>
       </c>
       <c r="E159">
-        <v>100501745</v>
+        <v>100525895</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -5260,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>4081</v>
+        <v>4084</v>
       </c>
       <c r="D160">
         <v>681</v>
       </c>
       <c r="E160">
-        <v>11730743</v>
+        <v>11760576</v>
       </c>
       <c r="F160" t="s">
         <v>23</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>187693</v>
+        <v>187787</v>
       </c>
       <c r="D164">
         <v>42571</v>
       </c>
       <c r="E164">
-        <v>357549271</v>
+        <v>357787236</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="D169">
         <v>499</v>
       </c>
       <c r="E169">
-        <v>22584190</v>
+        <v>22617088</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5579,13 +5579,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>89786</v>
+        <v>89830</v>
       </c>
       <c r="D171">
         <v>18282</v>
       </c>
       <c r="E171">
-        <v>455275612</v>
+        <v>455775480</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>37565</v>
+        <v>37599</v>
       </c>
       <c r="D174">
-        <v>7149</v>
+        <v>7151</v>
       </c>
       <c r="E174">
-        <v>212853372</v>
+        <v>213207174</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D176">
         <v>681</v>
       </c>
       <c r="E176">
-        <v>6442145</v>
+        <v>6450321</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -5753,13 +5753,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>6357</v>
+        <v>6369</v>
       </c>
       <c r="D177">
         <v>1155</v>
       </c>
       <c r="E177">
-        <v>26734836</v>
+        <v>26791109</v>
       </c>
       <c r="F177" t="s">
         <v>24</v>
@@ -5782,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>494894</v>
+        <v>495214</v>
       </c>
       <c r="D178">
-        <v>115210</v>
+        <v>115218</v>
       </c>
       <c r="E178">
-        <v>861691928</v>
+        <v>862520845</v>
       </c>
       <c r="F178" t="s">
         <v>25</v>
@@ -5811,13 +5811,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D179">
         <v>68</v>
       </c>
       <c r="E179">
-        <v>705983</v>
+        <v>706433</v>
       </c>
       <c r="F179" t="s">
         <v>25</v>
@@ -5956,13 +5956,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="D184">
         <v>564</v>
       </c>
       <c r="E184">
-        <v>21363755</v>
+        <v>21374399</v>
       </c>
       <c r="F184" t="s">
         <v>25</v>
@@ -6014,13 +6014,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>221671</v>
+        <v>221844</v>
       </c>
       <c r="D186">
         <v>46224</v>
       </c>
       <c r="E186">
-        <v>1093597195</v>
+        <v>1095132139</v>
       </c>
       <c r="F186" t="s">
         <v>25</v>
@@ -6043,13 +6043,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D187">
         <v>132</v>
       </c>
       <c r="E187">
-        <v>18134111</v>
+        <v>18258805</v>
       </c>
       <c r="F187" t="s">
         <v>25</v>
@@ -6101,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>93389</v>
+        <v>93491</v>
       </c>
       <c r="D189">
         <v>18222</v>
       </c>
       <c r="E189">
-        <v>497753617</v>
+        <v>498883024</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>15353</v>
+        <v>15392</v>
       </c>
       <c r="D192">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="E192">
-        <v>74915931</v>
+        <v>75253456</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>16783</v>
+        <v>16836</v>
       </c>
       <c r="D194">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="E194">
-        <v>64019081</v>
+        <v>64349895</v>
       </c>
       <c r="F194" t="s">
         <v>25</v>
@@ -6304,13 +6304,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>571906</v>
+        <v>572332</v>
       </c>
       <c r="D196">
-        <v>126974</v>
+        <v>126979</v>
       </c>
       <c r="E196">
-        <v>953883750</v>
+        <v>954806324</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
@@ -6333,13 +6333,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D197">
         <v>74</v>
       </c>
       <c r="E197">
-        <v>765423</v>
+        <v>767806</v>
       </c>
       <c r="F197" t="s">
         <v>26</v>
@@ -6507,13 +6507,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>1036732</v>
+        <v>1056732</v>
       </c>
       <c r="F203" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>249586</v>
+        <v>249826</v>
       </c>
       <c r="D204">
-        <v>49683</v>
+        <v>49685</v>
       </c>
       <c r="E204">
-        <v>1177177094</v>
+        <v>1178797118</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6565,13 +6565,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D205">
         <v>137</v>
       </c>
       <c r="E205">
-        <v>18614975</v>
+        <v>18616475</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -6594,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D206">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>2997823</v>
+        <v>3048785</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>144893</v>
+        <v>145086</v>
       </c>
       <c r="D207">
-        <v>27003</v>
+        <v>27006</v>
       </c>
       <c r="E207">
-        <v>686128188</v>
+        <v>687460051</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -6710,13 +6710,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>11420</v>
+        <v>11454</v>
       </c>
       <c r="D210">
         <v>3228</v>
       </c>
       <c r="E210">
-        <v>38907390</v>
+        <v>39086146</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -6797,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>21376</v>
+        <v>21447</v>
       </c>
       <c r="D213">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="E213">
-        <v>78360210</v>
+        <v>78831209</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>220621</v>
+        <v>220763</v>
       </c>
       <c r="D215">
-        <v>52351</v>
+        <v>52352</v>
       </c>
       <c r="E215">
-        <v>395322749</v>
+        <v>395682110</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6971,13 +6971,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>2829</v>
+        <v>2838</v>
       </c>
       <c r="D219">
         <v>423</v>
       </c>
       <c r="E219">
-        <v>18255469</v>
+        <v>18350061</v>
       </c>
       <c r="F219" t="s">
         <v>27</v>
@@ -7029,13 +7029,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>126748</v>
+        <v>126877</v>
       </c>
       <c r="D221">
-        <v>27121</v>
+        <v>27124</v>
       </c>
       <c r="E221">
-        <v>631812940</v>
+        <v>633059381</v>
       </c>
       <c r="F221" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>36668</v>
+        <v>36717</v>
       </c>
       <c r="D224">
-        <v>7169</v>
+        <v>7170</v>
       </c>
       <c r="E224">
-        <v>224222914</v>
+        <v>224766815</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>4132</v>
+        <v>4138</v>
       </c>
       <c r="D226">
         <v>1259</v>
       </c>
       <c r="E226">
-        <v>15108461</v>
+        <v>15144141</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7232,13 +7232,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>8995</v>
+        <v>9021</v>
       </c>
       <c r="D228">
         <v>1573</v>
       </c>
       <c r="E228">
-        <v>38413780</v>
+        <v>38572367</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
@@ -7261,13 +7261,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>586329</v>
+        <v>586715</v>
       </c>
       <c r="D229">
-        <v>121077</v>
+        <v>121079</v>
       </c>
       <c r="E229">
-        <v>1005600039</v>
+        <v>1006519036</v>
       </c>
       <c r="F229" t="s">
         <v>28</v>
@@ -7435,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>3950</v>
+        <v>3954</v>
       </c>
       <c r="D235">
         <v>601</v>
       </c>
       <c r="E235">
-        <v>30761192</v>
+        <v>30795244</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>265522</v>
+        <v>265757</v>
       </c>
       <c r="D237">
-        <v>49680</v>
+        <v>49684</v>
       </c>
       <c r="E237">
-        <v>1323046281</v>
+        <v>1325014849</v>
       </c>
       <c r="F237" t="s">
         <v>28</v>
@@ -7580,13 +7580,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>192205</v>
+        <v>192413</v>
       </c>
       <c r="D240">
-        <v>33863</v>
+        <v>33865</v>
       </c>
       <c r="E240">
-        <v>955233007</v>
+        <v>957067555</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -7638,13 +7638,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D242">
         <v>28</v>
       </c>
       <c r="E242">
-        <v>4980976</v>
+        <v>5113026</v>
       </c>
       <c r="F242" t="s">
         <v>28</v>
@@ -7667,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>6734</v>
+        <v>6741</v>
       </c>
       <c r="D243">
         <v>1811</v>
       </c>
       <c r="E243">
-        <v>25036834</v>
+        <v>25090139</v>
       </c>
       <c r="F243" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>17052</v>
+        <v>17085</v>
       </c>
       <c r="D246">
         <v>2712</v>
       </c>
       <c r="E246">
-        <v>64168662</v>
+        <v>64487074</v>
       </c>
       <c r="F246" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>732626</v>
+        <v>738265</v>
       </c>
       <c r="D2">
-        <v>155757</v>
+        <v>155777</v>
       </c>
       <c r="E2">
-        <v>1375303215</v>
+        <v>1388715958</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>1848743</v>
+        <v>1910835</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D4">
         <v>177</v>
       </c>
       <c r="E4">
-        <v>4580935</v>
+        <v>4602859</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3808</v>
+        <v>3845</v>
       </c>
       <c r="D8">
         <v>617</v>
       </c>
       <c r="E8">
-        <v>27111773</v>
+        <v>27500583</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -881,13 +881,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>1729502</v>
+        <v>1748858</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>321739</v>
+        <v>324068</v>
       </c>
       <c r="D10">
-        <v>64044</v>
+        <v>64047</v>
       </c>
       <c r="E10">
-        <v>1669923959</v>
+        <v>1691045517</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="D11">
         <v>246</v>
       </c>
       <c r="E11">
-        <v>35050287</v>
+        <v>35532500</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>5075117</v>
+        <v>5098828</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>173224</v>
+        <v>174583</v>
       </c>
       <c r="D13">
-        <v>33027</v>
+        <v>33029</v>
       </c>
       <c r="E13">
-        <v>1012445527</v>
+        <v>1025510497</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9689</v>
+        <v>9760</v>
       </c>
       <c r="D16">
         <v>2981</v>
       </c>
       <c r="E16">
-        <v>26058723</v>
+        <v>26337886</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1113,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>91386</v>
+        <v>101386</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>24897</v>
+        <v>25009</v>
       </c>
       <c r="D19">
-        <v>4181</v>
+        <v>4183</v>
       </c>
       <c r="E19">
-        <v>111551376</v>
+        <v>112510408</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>167884</v>
+        <v>169295</v>
       </c>
       <c r="D21">
-        <v>37999</v>
+        <v>38003</v>
       </c>
       <c r="E21">
-        <v>306497505</v>
+        <v>309926721</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1287,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23">
-        <v>299876</v>
+        <v>309876</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1316,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>37560</v>
+        <v>40439</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="D26">
         <v>171</v>
       </c>
       <c r="E26">
-        <v>6047014</v>
+        <v>6122397</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>84375</v>
+        <v>85055</v>
       </c>
       <c r="D27">
-        <v>17530</v>
+        <v>17531</v>
       </c>
       <c r="E27">
-        <v>410918868</v>
+        <v>416710904</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>6540292</v>
+        <v>6541792</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>32717</v>
+        <v>32978</v>
       </c>
       <c r="D30">
         <v>6500</v>
       </c>
       <c r="E30">
-        <v>174756541</v>
+        <v>177430094</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4327</v>
+        <v>4356</v>
       </c>
       <c r="D33">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E33">
-        <v>19098919</v>
+        <v>19296672</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>6407</v>
+        <v>6430</v>
       </c>
       <c r="D35">
         <v>1087</v>
       </c>
       <c r="E35">
-        <v>28774765</v>
+        <v>28890575</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>202654</v>
+        <v>204195</v>
       </c>
       <c r="D36">
-        <v>48101</v>
+        <v>48102</v>
       </c>
       <c r="E36">
-        <v>391397784</v>
+        <v>395870983</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1722,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D38">
         <v>41</v>
       </c>
       <c r="E38">
-        <v>734968</v>
+        <v>744968</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4634</v>
+        <v>4665</v>
       </c>
       <c r="D39">
         <v>643</v>
       </c>
       <c r="E39">
-        <v>31121574</v>
+        <v>31396689</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>119583</v>
+        <v>120542</v>
       </c>
       <c r="D41">
-        <v>24224</v>
+        <v>24225</v>
       </c>
       <c r="E41">
-        <v>620500087</v>
+        <v>629010883</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1838,13 +1838,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D42">
         <v>48</v>
       </c>
       <c r="E42">
-        <v>6698528</v>
+        <v>6721141</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>27503</v>
+        <v>27739</v>
       </c>
       <c r="D44">
         <v>5489</v>
       </c>
       <c r="E44">
-        <v>178647005</v>
+        <v>180897462</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2741</v>
+        <v>2755</v>
       </c>
       <c r="D46">
         <v>832</v>
       </c>
       <c r="E46">
-        <v>7768630</v>
+        <v>7838681</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8575</v>
+        <v>8611</v>
       </c>
       <c r="D47">
         <v>1463</v>
       </c>
       <c r="E47">
-        <v>39896409</v>
+        <v>40156140</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>144331</v>
+        <v>145519</v>
       </c>
       <c r="D48">
-        <v>33477</v>
+        <v>33479</v>
       </c>
       <c r="E48">
-        <v>265893745</v>
+        <v>269003192</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2041,13 +2041,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>137891</v>
+        <v>147891</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2070,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>480818</v>
+        <v>490818</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2128,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="D52">
         <v>257</v>
       </c>
       <c r="E52">
-        <v>9655953</v>
+        <v>9730172</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>70540</v>
+        <v>71122</v>
       </c>
       <c r="D54">
-        <v>14889</v>
+        <v>14890</v>
       </c>
       <c r="E54">
-        <v>332734776</v>
+        <v>337647546</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>29504</v>
+        <v>29727</v>
       </c>
       <c r="D57">
-        <v>5988</v>
+        <v>5990</v>
       </c>
       <c r="E57">
-        <v>147329291</v>
+        <v>149352161</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>3424</v>
+        <v>3457</v>
       </c>
       <c r="D59">
         <v>938</v>
       </c>
       <c r="E59">
-        <v>14776171</v>
+        <v>15037758</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5568</v>
+        <v>5599</v>
       </c>
       <c r="D61">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E61">
-        <v>21853752</v>
+        <v>22046322</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>47224</v>
+        <v>47676</v>
       </c>
       <c r="D63">
         <v>9521</v>
       </c>
       <c r="E63">
-        <v>100064498</v>
+        <v>101375569</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2505,13 +2505,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65">
         <v>19</v>
       </c>
       <c r="E65">
-        <v>408667</v>
+        <v>410167</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -2534,13 +2534,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D66">
         <v>36</v>
       </c>
       <c r="E66">
-        <v>1396502</v>
+        <v>1412819</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>25648</v>
+        <v>25874</v>
       </c>
       <c r="D67">
         <v>4259</v>
       </c>
       <c r="E67">
-        <v>157438982</v>
+        <v>159542857</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>16851</v>
+        <v>17032</v>
       </c>
       <c r="D69">
         <v>2894</v>
       </c>
       <c r="E69">
-        <v>96451130</v>
+        <v>98016036</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2650,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="D70">
         <v>263</v>
       </c>
       <c r="E70">
-        <v>3875917</v>
+        <v>3886971</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="D71">
         <v>158</v>
       </c>
       <c r="E71">
-        <v>3402381</v>
+        <v>3446470</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>316233</v>
+        <v>318641</v>
       </c>
       <c r="D72">
-        <v>71577</v>
+        <v>71582</v>
       </c>
       <c r="E72">
-        <v>611827169</v>
+        <v>617279216</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2737,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D73">
         <v>101</v>
       </c>
       <c r="E73">
-        <v>1750667</v>
+        <v>1770667</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -2766,13 +2766,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74">
         <v>45</v>
       </c>
       <c r="E74">
-        <v>1043770</v>
+        <v>1045270</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1956</v>
+        <v>1976</v>
       </c>
       <c r="D76">
         <v>312</v>
       </c>
       <c r="E76">
-        <v>11950001</v>
+        <v>12127507</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>166384</v>
+        <v>167525</v>
       </c>
       <c r="D78">
-        <v>34642</v>
+        <v>34647</v>
       </c>
       <c r="E78">
-        <v>821618978</v>
+        <v>831653456</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D79">
         <v>126</v>
       </c>
       <c r="E79">
-        <v>15936668</v>
+        <v>16032531</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -2940,13 +2940,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D80">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>4436728</v>
+        <v>4569518</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>81801</v>
+        <v>82390</v>
       </c>
       <c r="D81">
-        <v>16511</v>
+        <v>16513</v>
       </c>
       <c r="E81">
-        <v>441039828</v>
+        <v>446394873</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3027,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D83">
         <v>168</v>
       </c>
       <c r="E83">
-        <v>15374787</v>
+        <v>15376287</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>25073</v>
+        <v>25169</v>
       </c>
       <c r="D84">
-        <v>6713</v>
+        <v>6714</v>
       </c>
       <c r="E84">
-        <v>144130608</v>
+        <v>144863067</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>10211</v>
+        <v>10255</v>
       </c>
       <c r="D86">
         <v>1735</v>
       </c>
       <c r="E86">
-        <v>44669626</v>
+        <v>44965856</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>61303</v>
+        <v>61562</v>
       </c>
       <c r="D88">
-        <v>12265</v>
+        <v>12266</v>
       </c>
       <c r="E88">
-        <v>97508748</v>
+        <v>97977372</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>14995</v>
+        <v>15061</v>
       </c>
       <c r="D91">
         <v>3289</v>
       </c>
       <c r="E91">
-        <v>49187066</v>
+        <v>49644907</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13817</v>
+        <v>13874</v>
       </c>
       <c r="D93">
         <v>2815</v>
       </c>
       <c r="E93">
-        <v>36096529</v>
+        <v>36334418</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3346,13 +3346,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D94">
         <v>201</v>
       </c>
       <c r="E94">
-        <v>1568755</v>
+        <v>1579285</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3375,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D95">
         <v>192</v>
       </c>
       <c r="E95">
-        <v>1433737</v>
+        <v>1435237</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>24837</v>
+        <v>24906</v>
       </c>
       <c r="D96">
         <v>3736</v>
       </c>
       <c r="E96">
-        <v>49613937</v>
+        <v>49731187</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>5318</v>
+        <v>5333</v>
       </c>
       <c r="D98">
         <v>901</v>
       </c>
       <c r="E98">
-        <v>15253817</v>
+        <v>15321904</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -3520,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>7847</v>
+        <v>7879</v>
       </c>
       <c r="D100">
         <v>1264</v>
       </c>
       <c r="E100">
-        <v>19590078</v>
+        <v>19669149</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>305604</v>
+        <v>308291</v>
       </c>
       <c r="D104">
-        <v>67844</v>
+        <v>67846</v>
       </c>
       <c r="E104">
-        <v>543018939</v>
+        <v>548925556</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3694,13 +3694,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D106">
         <v>38</v>
       </c>
       <c r="E106">
-        <v>416812</v>
+        <v>427553</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -3781,13 +3781,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109">
-        <v>308600</v>
+        <v>318600</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>4391</v>
+        <v>4427</v>
       </c>
       <c r="D110">
         <v>620</v>
       </c>
       <c r="E110">
-        <v>26397171</v>
+        <v>26702813</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>135585</v>
+        <v>136693</v>
       </c>
       <c r="D112">
         <v>27797</v>
       </c>
       <c r="E112">
-        <v>657643104</v>
+        <v>666956254</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -3897,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D113">
         <v>112</v>
       </c>
       <c r="E113">
-        <v>12974154</v>
+        <v>13013987</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>75724</v>
+        <v>76398</v>
       </c>
       <c r="D115">
         <v>14381</v>
       </c>
       <c r="E115">
-        <v>389564588</v>
+        <v>395004456</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>3554</v>
+        <v>3579</v>
       </c>
       <c r="D118">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E118">
-        <v>11501428</v>
+        <v>11610231</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>8269</v>
+        <v>8307</v>
       </c>
       <c r="D119">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E119">
-        <v>33753250</v>
+        <v>33901077</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1225153</v>
+        <v>1236377</v>
       </c>
       <c r="D121">
-        <v>219989</v>
+        <v>220012</v>
       </c>
       <c r="E121">
-        <v>2170950542</v>
+        <v>2194878485</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4158,13 +4158,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D122">
         <v>47</v>
       </c>
       <c r="E122">
-        <v>936661</v>
+        <v>965084</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
@@ -4187,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D123">
         <v>130</v>
       </c>
       <c r="E123">
-        <v>3734026</v>
+        <v>3794097</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>7766</v>
+        <v>7833</v>
       </c>
       <c r="D127">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E127">
-        <v>89895743</v>
+        <v>91182368</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D128">
         <v>37</v>
       </c>
       <c r="E128">
-        <v>4868621</v>
+        <v>4878621</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>571599</v>
+        <v>575726</v>
       </c>
       <c r="D129">
-        <v>104622</v>
+        <v>104632</v>
       </c>
       <c r="E129">
-        <v>2912060354</v>
+        <v>2947549217</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4390,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>3367</v>
+        <v>3399</v>
       </c>
       <c r="D130">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E130">
-        <v>96105750</v>
+        <v>97207198</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D131">
         <v>53</v>
       </c>
       <c r="E131">
-        <v>13663077</v>
+        <v>13801505</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>526889</v>
+        <v>531157</v>
       </c>
       <c r="D132">
-        <v>90169</v>
+        <v>90175</v>
       </c>
       <c r="E132">
-        <v>2778917709</v>
+        <v>2813395705</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4506,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>6562</v>
+        <v>6609</v>
       </c>
       <c r="D134">
         <v>1670</v>
       </c>
       <c r="E134">
-        <v>15159147</v>
+        <v>15287867</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>23576</v>
+        <v>23673</v>
       </c>
       <c r="D136">
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="E136">
-        <v>112598207</v>
+        <v>113381790</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
@@ -4651,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>71009</v>
+        <v>71390</v>
       </c>
       <c r="D139">
         <v>17461</v>
       </c>
       <c r="E139">
-        <v>107619318</v>
+        <v>108351022</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>21794</v>
+        <v>21876</v>
       </c>
       <c r="D144">
         <v>6122</v>
       </c>
       <c r="E144">
-        <v>68160668</v>
+        <v>68743871</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>6368</v>
+        <v>6402</v>
       </c>
       <c r="D146">
         <v>1634</v>
       </c>
       <c r="E146">
-        <v>22585838</v>
+        <v>22768213</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4941,13 +4941,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D149">
         <v>169</v>
       </c>
       <c r="E149">
-        <v>986368</v>
+        <v>996368</v>
       </c>
       <c r="F149" t="s">
         <v>21</v>
@@ -4970,13 +4970,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D150">
         <v>175</v>
       </c>
       <c r="E150">
-        <v>1837256</v>
+        <v>1844180</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>33300</v>
+        <v>33436</v>
       </c>
       <c r="D151">
         <v>7102</v>
       </c>
       <c r="E151">
-        <v>52681733</v>
+        <v>52914751</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>14248</v>
+        <v>14301</v>
       </c>
       <c r="D154">
         <v>3211</v>
       </c>
       <c r="E154">
-        <v>48245989</v>
+        <v>48594136</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>9979</v>
+        <v>10023</v>
       </c>
       <c r="D156">
         <v>2093</v>
       </c>
       <c r="E156">
-        <v>27835189</v>
+        <v>27995237</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -5173,13 +5173,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D157">
         <v>129</v>
       </c>
       <c r="E157">
-        <v>926289</v>
+        <v>930524</v>
       </c>
       <c r="F157" t="s">
         <v>22</v>
@@ -5231,13 +5231,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>43203</v>
+        <v>43267</v>
       </c>
       <c r="D159">
         <v>5415</v>
       </c>
       <c r="E159">
-        <v>100525895</v>
+        <v>100654132</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -5260,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>4084</v>
+        <v>4093</v>
       </c>
       <c r="D160">
         <v>681</v>
       </c>
       <c r="E160">
-        <v>11760576</v>
+        <v>11802563</v>
       </c>
       <c r="F160" t="s">
         <v>23</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>187787</v>
+        <v>189361</v>
       </c>
       <c r="D164">
-        <v>42571</v>
+        <v>42573</v>
       </c>
       <c r="E164">
-        <v>357787236</v>
+        <v>362094740</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -5434,13 +5434,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D166">
         <v>43</v>
       </c>
       <c r="E166">
-        <v>753964</v>
+        <v>763964</v>
       </c>
       <c r="F166" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>3285</v>
+        <v>3310</v>
       </c>
       <c r="D169">
         <v>499</v>
       </c>
       <c r="E169">
-        <v>22617088</v>
+        <v>22988455</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5579,13 +5579,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>89830</v>
+        <v>90539</v>
       </c>
       <c r="D171">
         <v>18282</v>
       </c>
       <c r="E171">
-        <v>455775480</v>
+        <v>461991249</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5608,13 +5608,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D172">
         <v>40</v>
       </c>
       <c r="E172">
-        <v>4102986</v>
+        <v>4126763</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>37599</v>
+        <v>37905</v>
       </c>
       <c r="D174">
         <v>7151</v>
       </c>
       <c r="E174">
-        <v>213207174</v>
+        <v>216594892</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>2509</v>
+        <v>2522</v>
       </c>
       <c r="D176">
         <v>681</v>
       </c>
       <c r="E176">
-        <v>6450321</v>
+        <v>6493754</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -5753,13 +5753,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>6369</v>
+        <v>6405</v>
       </c>
       <c r="D177">
         <v>1155</v>
       </c>
       <c r="E177">
-        <v>26791109</v>
+        <v>26973771</v>
       </c>
       <c r="F177" t="s">
         <v>24</v>
@@ -5782,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>495214</v>
+        <v>499242</v>
       </c>
       <c r="D178">
-        <v>115218</v>
+        <v>115226</v>
       </c>
       <c r="E178">
-        <v>862520845</v>
+        <v>871389080</v>
       </c>
       <c r="F178" t="s">
         <v>25</v>
@@ -5811,13 +5811,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D179">
         <v>68</v>
       </c>
       <c r="E179">
-        <v>706433</v>
+        <v>723630</v>
       </c>
       <c r="F179" t="s">
         <v>25</v>
@@ -5840,13 +5840,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D180">
         <v>96</v>
       </c>
       <c r="E180">
-        <v>1399835</v>
+        <v>1422087</v>
       </c>
       <c r="F180" t="s">
         <v>25</v>
@@ -5956,13 +5956,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>3351</v>
+        <v>3387</v>
       </c>
       <c r="D184">
         <v>564</v>
       </c>
       <c r="E184">
-        <v>21374399</v>
+        <v>21671457</v>
       </c>
       <c r="F184" t="s">
         <v>25</v>
@@ -6014,13 +6014,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>221844</v>
+        <v>223773</v>
       </c>
       <c r="D186">
-        <v>46224</v>
+        <v>46227</v>
       </c>
       <c r="E186">
-        <v>1095132139</v>
+        <v>1112137738</v>
       </c>
       <c r="F186" t="s">
         <v>25</v>
@@ -6043,13 +6043,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D187">
         <v>132</v>
       </c>
       <c r="E187">
-        <v>18258805</v>
+        <v>18765623</v>
       </c>
       <c r="F187" t="s">
         <v>25</v>
@@ -6072,13 +6072,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D188">
         <v>13</v>
       </c>
       <c r="E188">
-        <v>3136574</v>
+        <v>3159157</v>
       </c>
       <c r="F188" t="s">
         <v>25</v>
@@ -6101,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>93491</v>
+        <v>94264</v>
       </c>
       <c r="D189">
-        <v>18222</v>
+        <v>18224</v>
       </c>
       <c r="E189">
-        <v>498883024</v>
+        <v>505612509</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>15392</v>
+        <v>15526</v>
       </c>
       <c r="D192">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E192">
-        <v>75253456</v>
+        <v>76372091</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>16836</v>
+        <v>16921</v>
       </c>
       <c r="D194">
         <v>2978</v>
       </c>
       <c r="E194">
-        <v>64349895</v>
+        <v>64747820</v>
       </c>
       <c r="F194" t="s">
         <v>25</v>
@@ -6304,13 +6304,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>572332</v>
+        <v>577226</v>
       </c>
       <c r="D196">
-        <v>126979</v>
+        <v>126986</v>
       </c>
       <c r="E196">
-        <v>954806324</v>
+        <v>964723115</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
@@ -6333,13 +6333,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D197">
         <v>74</v>
       </c>
       <c r="E197">
-        <v>767806</v>
+        <v>773016</v>
       </c>
       <c r="F197" t="s">
         <v>26</v>
@@ -6362,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D198">
         <v>134</v>
       </c>
       <c r="E198">
-        <v>2182314</v>
+        <v>2206070</v>
       </c>
       <c r="F198" t="s">
         <v>26</v>
@@ -6391,13 +6391,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D199">
         <v>10</v>
       </c>
       <c r="E199">
-        <v>317497</v>
+        <v>318897</v>
       </c>
       <c r="F199" t="s">
         <v>26</v>
@@ -6478,13 +6478,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>2301</v>
+        <v>2323</v>
       </c>
       <c r="D202">
         <v>369</v>
       </c>
       <c r="E202">
-        <v>16083575</v>
+        <v>16296946</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>249826</v>
+        <v>251822</v>
       </c>
       <c r="D204">
-        <v>49685</v>
+        <v>49686</v>
       </c>
       <c r="E204">
-        <v>1178797118</v>
+        <v>1195689373</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6565,13 +6565,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D205">
         <v>137</v>
       </c>
       <c r="E205">
-        <v>18616475</v>
+        <v>18655848</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>145086</v>
+        <v>146298</v>
       </c>
       <c r="D207">
         <v>27006</v>
       </c>
       <c r="E207">
-        <v>687460051</v>
+        <v>696739993</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -6652,13 +6652,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D208">
         <v>17</v>
       </c>
       <c r="E208">
-        <v>469074</v>
+        <v>478209</v>
       </c>
       <c r="F208" t="s">
         <v>26</v>
@@ -6681,13 +6681,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D209">
         <v>15</v>
       </c>
       <c r="E209">
-        <v>1216443</v>
+        <v>1226443</v>
       </c>
       <c r="F209" t="s">
         <v>26</v>
@@ -6710,13 +6710,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>11454</v>
+        <v>11550</v>
       </c>
       <c r="D210">
         <v>3228</v>
       </c>
       <c r="E210">
-        <v>39086146</v>
+        <v>39653854</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -6797,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>21447</v>
+        <v>21544</v>
       </c>
       <c r="D213">
         <v>3526</v>
       </c>
       <c r="E213">
-        <v>78831209</v>
+        <v>79433365</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -6826,13 +6826,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D214">
         <v>3</v>
       </c>
       <c r="E214">
-        <v>92744</v>
+        <v>102744</v>
       </c>
       <c r="F214" t="s">
         <v>26</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>220763</v>
+        <v>222449</v>
       </c>
       <c r="D215">
-        <v>52352</v>
+        <v>52353</v>
       </c>
       <c r="E215">
-        <v>395682110</v>
+        <v>399777574</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6913,13 +6913,13 @@
         <v>10</v>
       </c>
       <c r="C217">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D217">
         <v>31</v>
       </c>
       <c r="E217">
-        <v>681735</v>
+        <v>688895</v>
       </c>
       <c r="F217" t="s">
         <v>27</v>
@@ -6971,13 +6971,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>2838</v>
+        <v>2860</v>
       </c>
       <c r="D219">
         <v>423</v>
       </c>
       <c r="E219">
-        <v>18350061</v>
+        <v>18516742</v>
       </c>
       <c r="F219" t="s">
         <v>27</v>
@@ -7029,13 +7029,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>126877</v>
+        <v>127916</v>
       </c>
       <c r="D221">
-        <v>27124</v>
+        <v>27125</v>
       </c>
       <c r="E221">
-        <v>633059381</v>
+        <v>642071602</v>
       </c>
       <c r="F221" t="s">
         <v>27</v>
@@ -7058,13 +7058,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D222">
         <v>56</v>
       </c>
       <c r="E222">
-        <v>7949177</v>
+        <v>8030945</v>
       </c>
       <c r="F222" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>36717</v>
+        <v>37016</v>
       </c>
       <c r="D224">
-        <v>7170</v>
+        <v>7171</v>
       </c>
       <c r="E224">
-        <v>224766815</v>
+        <v>228367014</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>4138</v>
+        <v>4159</v>
       </c>
       <c r="D226">
         <v>1259</v>
       </c>
       <c r="E226">
-        <v>15144141</v>
+        <v>15272869</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7232,13 +7232,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>9021</v>
+        <v>9062</v>
       </c>
       <c r="D228">
         <v>1573</v>
       </c>
       <c r="E228">
-        <v>38572367</v>
+        <v>38817501</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
@@ -7261,13 +7261,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>586715</v>
+        <v>592222</v>
       </c>
       <c r="D229">
-        <v>121079</v>
+        <v>121088</v>
       </c>
       <c r="E229">
-        <v>1006519036</v>
+        <v>1018065596</v>
       </c>
       <c r="F229" t="s">
         <v>28</v>
@@ -7290,13 +7290,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D230">
         <v>91</v>
       </c>
       <c r="E230">
-        <v>1079084</v>
+        <v>1086620</v>
       </c>
       <c r="F230" t="s">
         <v>28</v>
@@ -7319,13 +7319,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D231">
         <v>127</v>
       </c>
       <c r="E231">
-        <v>2467877</v>
+        <v>2500328</v>
       </c>
       <c r="F231" t="s">
         <v>28</v>
@@ -7435,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>3954</v>
+        <v>4004</v>
       </c>
       <c r="D235">
         <v>601</v>
       </c>
       <c r="E235">
-        <v>30795244</v>
+        <v>31428063</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -7464,13 +7464,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D236">
         <v>13</v>
       </c>
       <c r="E236">
-        <v>1296798</v>
+        <v>1306798</v>
       </c>
       <c r="F236" t="s">
         <v>28</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>265757</v>
+        <v>268028</v>
       </c>
       <c r="D237">
-        <v>49684</v>
+        <v>49691</v>
       </c>
       <c r="E237">
-        <v>1325014849</v>
+        <v>1343495617</v>
       </c>
       <c r="F237" t="s">
         <v>28</v>
@@ -7522,13 +7522,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D238">
         <v>148</v>
       </c>
       <c r="E238">
-        <v>22803733</v>
+        <v>22904706</v>
       </c>
       <c r="F238" t="s">
         <v>28</v>
@@ -7551,13 +7551,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D239">
         <v>15</v>
       </c>
       <c r="E239">
-        <v>6024484</v>
+        <v>6045192</v>
       </c>
       <c r="F239" t="s">
         <v>28</v>
@@ -7580,13 +7580,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>192413</v>
+        <v>194084</v>
       </c>
       <c r="D240">
-        <v>33865</v>
+        <v>33867</v>
       </c>
       <c r="E240">
-        <v>957067555</v>
+        <v>969777318</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -7667,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>6741</v>
+        <v>6815</v>
       </c>
       <c r="D243">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="E243">
-        <v>25090139</v>
+        <v>25507638</v>
       </c>
       <c r="F243" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>17085</v>
+        <v>17159</v>
       </c>
       <c r="D246">
         <v>2712</v>
       </c>
       <c r="E246">
-        <v>64487074</v>
+        <v>64883491</v>
       </c>
       <c r="F246" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>738265</v>
+        <v>739384</v>
       </c>
       <c r="D2">
-        <v>155777</v>
+        <v>155781</v>
       </c>
       <c r="E2">
-        <v>1388715958</v>
+        <v>1390772768</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D4">
         <v>177</v>
       </c>
       <c r="E4">
-        <v>4602859</v>
+        <v>4623453</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3845</v>
+        <v>3849</v>
       </c>
       <c r="D8">
         <v>617</v>
       </c>
       <c r="E8">
-        <v>27500583</v>
+        <v>27535033</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>324068</v>
+        <v>324403</v>
       </c>
       <c r="D10">
-        <v>64047</v>
+        <v>64049</v>
       </c>
       <c r="E10">
-        <v>1691045517</v>
+        <v>1693657911</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D11">
         <v>246</v>
       </c>
       <c r="E11">
-        <v>35532500</v>
+        <v>35555531</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>174583</v>
+        <v>174803</v>
       </c>
       <c r="D13">
-        <v>33029</v>
+        <v>33033</v>
       </c>
       <c r="E13">
-        <v>1025510497</v>
+        <v>1027576252</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9760</v>
+        <v>9777</v>
       </c>
       <c r="D16">
         <v>2981</v>
       </c>
       <c r="E16">
-        <v>26337886</v>
+        <v>26458103</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>25009</v>
+        <v>25023</v>
       </c>
       <c r="D19">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E19">
-        <v>112510408</v>
+        <v>112616053</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>169295</v>
+        <v>169517</v>
       </c>
       <c r="D21">
-        <v>38003</v>
+        <v>38005</v>
       </c>
       <c r="E21">
-        <v>309926721</v>
+        <v>310372197</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D26">
         <v>171</v>
       </c>
       <c r="E26">
-        <v>6122397</v>
+        <v>6186554</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>85055</v>
+        <v>85134</v>
       </c>
       <c r="D27">
-        <v>17531</v>
+        <v>17532</v>
       </c>
       <c r="E27">
-        <v>416710904</v>
+        <v>417326246</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D28">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>6541792</v>
+        <v>6551792</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>32978</v>
+        <v>33018</v>
       </c>
       <c r="D30">
         <v>6500</v>
       </c>
       <c r="E30">
-        <v>177430094</v>
+        <v>177719644</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4356</v>
+        <v>4361</v>
       </c>
       <c r="D33">
         <v>1328</v>
       </c>
       <c r="E33">
-        <v>19296672</v>
+        <v>19323163</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>6430</v>
+        <v>6437</v>
       </c>
       <c r="D35">
         <v>1087</v>
       </c>
       <c r="E35">
-        <v>28890575</v>
+        <v>28927831</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>204195</v>
+        <v>204503</v>
       </c>
       <c r="D36">
-        <v>48102</v>
+        <v>48104</v>
       </c>
       <c r="E36">
-        <v>395870983</v>
+        <v>396485179</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4665</v>
+        <v>4672</v>
       </c>
       <c r="D39">
         <v>643</v>
       </c>
       <c r="E39">
-        <v>31396689</v>
+        <v>31455391</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>120542</v>
+        <v>120661</v>
       </c>
       <c r="D41">
         <v>24225</v>
       </c>
       <c r="E41">
-        <v>629010883</v>
+        <v>629863508</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1838,13 +1838,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D42">
         <v>48</v>
       </c>
       <c r="E42">
-        <v>6721141</v>
+        <v>6731141</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1867,13 +1867,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43">
-        <v>1447796</v>
+        <v>1457796</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>27739</v>
+        <v>27776</v>
       </c>
       <c r="D44">
         <v>5489</v>
       </c>
       <c r="E44">
-        <v>180897462</v>
+        <v>181176609</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="D46">
         <v>832</v>
       </c>
       <c r="E46">
-        <v>7838681</v>
+        <v>7841514</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8611</v>
+        <v>8616</v>
       </c>
       <c r="D47">
         <v>1463</v>
       </c>
       <c r="E47">
-        <v>40156140</v>
+        <v>40185666</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>145519</v>
+        <v>145758</v>
       </c>
       <c r="D48">
-        <v>33479</v>
+        <v>33482</v>
       </c>
       <c r="E48">
-        <v>269003192</v>
+        <v>269437972</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>71122</v>
+        <v>71183</v>
       </c>
       <c r="D54">
-        <v>14890</v>
+        <v>14891</v>
       </c>
       <c r="E54">
-        <v>337647546</v>
+        <v>338054878</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>29727</v>
+        <v>29777</v>
       </c>
       <c r="D57">
         <v>5990</v>
       </c>
       <c r="E57">
-        <v>149352161</v>
+        <v>149633372</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>3457</v>
+        <v>3462</v>
       </c>
       <c r="D59">
         <v>938</v>
       </c>
       <c r="E59">
-        <v>15037758</v>
+        <v>15056420</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5599</v>
+        <v>5607</v>
       </c>
       <c r="D61">
         <v>1008</v>
       </c>
       <c r="E61">
-        <v>22046322</v>
+        <v>22081066</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>47676</v>
+        <v>47748</v>
       </c>
       <c r="D63">
         <v>9521</v>
       </c>
       <c r="E63">
-        <v>101375569</v>
+        <v>101523812</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>25874</v>
+        <v>25903</v>
       </c>
       <c r="D67">
         <v>4259</v>
       </c>
       <c r="E67">
-        <v>159542857</v>
+        <v>159839783</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>17032</v>
+        <v>17051</v>
       </c>
       <c r="D69">
         <v>2894</v>
       </c>
       <c r="E69">
-        <v>98016036</v>
+        <v>98193889</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D71">
         <v>158</v>
       </c>
       <c r="E71">
-        <v>3446470</v>
+        <v>3447754</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>318641</v>
+        <v>319131</v>
       </c>
       <c r="D72">
-        <v>71582</v>
+        <v>71583</v>
       </c>
       <c r="E72">
-        <v>617279216</v>
+        <v>618273201</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="D76">
         <v>312</v>
       </c>
       <c r="E76">
-        <v>12127507</v>
+        <v>12153120</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>167525</v>
+        <v>167687</v>
       </c>
       <c r="D78">
         <v>34647</v>
       </c>
       <c r="E78">
-        <v>831653456</v>
+        <v>832805797</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>82390</v>
+        <v>82466</v>
       </c>
       <c r="D81">
-        <v>16513</v>
+        <v>16514</v>
       </c>
       <c r="E81">
-        <v>446394873</v>
+        <v>446867213</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>25169</v>
+        <v>25201</v>
       </c>
       <c r="D84">
-        <v>6714</v>
+        <v>6715</v>
       </c>
       <c r="E84">
-        <v>144863067</v>
+        <v>145079078</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>10255</v>
+        <v>10267</v>
       </c>
       <c r="D86">
         <v>1735</v>
       </c>
       <c r="E86">
-        <v>44965856</v>
+        <v>45024435</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>61562</v>
+        <v>61665</v>
       </c>
       <c r="D88">
         <v>12266</v>
       </c>
       <c r="E88">
-        <v>97977372</v>
+        <v>98150108</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>15061</v>
+        <v>15084</v>
       </c>
       <c r="D91">
         <v>3289</v>
       </c>
       <c r="E91">
-        <v>49644907</v>
+        <v>49767621</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13874</v>
+        <v>13888</v>
       </c>
       <c r="D93">
         <v>2815</v>
       </c>
       <c r="E93">
-        <v>36334418</v>
+        <v>36390593</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3346,13 +3346,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D94">
         <v>201</v>
       </c>
       <c r="E94">
-        <v>1579285</v>
+        <v>1583285</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3375,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D95">
         <v>192</v>
       </c>
       <c r="E95">
-        <v>1435237</v>
+        <v>1440969</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>24906</v>
+        <v>24923</v>
       </c>
       <c r="D96">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E96">
-        <v>49731187</v>
+        <v>49755521</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>5333</v>
+        <v>5339</v>
       </c>
       <c r="D98">
         <v>901</v>
       </c>
       <c r="E98">
-        <v>15321904</v>
+        <v>15334314</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -3520,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>7879</v>
+        <v>7886</v>
       </c>
       <c r="D100">
         <v>1264</v>
       </c>
       <c r="E100">
-        <v>19669149</v>
+        <v>19679867</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>308291</v>
+        <v>308763</v>
       </c>
       <c r="D104">
-        <v>67846</v>
+        <v>67848</v>
       </c>
       <c r="E104">
-        <v>548925556</v>
+        <v>549818808</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>4427</v>
+        <v>4431</v>
       </c>
       <c r="D110">
         <v>620</v>
       </c>
       <c r="E110">
-        <v>26702813</v>
+        <v>26736023</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>136693</v>
+        <v>136842</v>
       </c>
       <c r="D112">
-        <v>27797</v>
+        <v>27799</v>
       </c>
       <c r="E112">
-        <v>666956254</v>
+        <v>668020552</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>76398</v>
+        <v>76501</v>
       </c>
       <c r="D115">
         <v>14381</v>
       </c>
       <c r="E115">
-        <v>395004456</v>
+        <v>395596503</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -4013,13 +4013,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D117">
         <v>20</v>
       </c>
       <c r="E117">
-        <v>911961</v>
+        <v>1111961</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>3579</v>
+        <v>3584</v>
       </c>
       <c r="D118">
         <v>1089</v>
       </c>
       <c r="E118">
-        <v>11610231</v>
+        <v>11622134</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>8307</v>
+        <v>8309</v>
       </c>
       <c r="D119">
         <v>1416</v>
       </c>
       <c r="E119">
-        <v>33901077</v>
+        <v>33918718</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1236377</v>
+        <v>1239082</v>
       </c>
       <c r="D121">
-        <v>220012</v>
+        <v>220016</v>
       </c>
       <c r="E121">
-        <v>2194878485</v>
+        <v>2200184531</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4187,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D123">
         <v>130</v>
       </c>
       <c r="E123">
-        <v>3794097</v>
+        <v>3796483</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -4216,13 +4216,13 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124">
         <v>9</v>
       </c>
       <c r="E124">
-        <v>245798</v>
+        <v>247298</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>7833</v>
+        <v>7845</v>
       </c>
       <c r="D127">
         <v>1291</v>
       </c>
       <c r="E127">
-        <v>91182368</v>
+        <v>91333680</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>575726</v>
+        <v>576611</v>
       </c>
       <c r="D129">
-        <v>104632</v>
+        <v>104634</v>
       </c>
       <c r="E129">
-        <v>2947549217</v>
+        <v>2953248870</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4390,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>3399</v>
+        <v>3404</v>
       </c>
       <c r="D130">
         <v>609</v>
       </c>
       <c r="E130">
-        <v>97207198</v>
+        <v>97528237</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>531157</v>
+        <v>532096</v>
       </c>
       <c r="D132">
-        <v>90175</v>
+        <v>90178</v>
       </c>
       <c r="E132">
-        <v>2813395705</v>
+        <v>2819226389</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4506,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>6609</v>
+        <v>6619</v>
       </c>
       <c r="D134">
         <v>1670</v>
       </c>
       <c r="E134">
-        <v>15287867</v>
+        <v>15304402</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>23673</v>
+        <v>23709</v>
       </c>
       <c r="D136">
         <v>4226</v>
       </c>
       <c r="E136">
-        <v>113381790</v>
+        <v>113504487</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
@@ -4651,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>71390</v>
+        <v>71469</v>
       </c>
       <c r="D139">
-        <v>17461</v>
+        <v>17462</v>
       </c>
       <c r="E139">
-        <v>108351022</v>
+        <v>108476776</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>21876</v>
+        <v>21899</v>
       </c>
       <c r="D144">
         <v>6122</v>
       </c>
       <c r="E144">
-        <v>68743871</v>
+        <v>68862250</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>6402</v>
+        <v>6408</v>
       </c>
       <c r="D146">
         <v>1634</v>
       </c>
       <c r="E146">
-        <v>22768213</v>
+        <v>22776063</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4941,13 +4941,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D149">
         <v>169</v>
       </c>
       <c r="E149">
-        <v>996368</v>
+        <v>997868</v>
       </c>
       <c r="F149" t="s">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>33436</v>
+        <v>33473</v>
       </c>
       <c r="D151">
         <v>7102</v>
       </c>
       <c r="E151">
-        <v>52914751</v>
+        <v>52970745</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>14301</v>
+        <v>14307</v>
       </c>
       <c r="D154">
         <v>3211</v>
       </c>
       <c r="E154">
-        <v>48594136</v>
+        <v>48639542</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>10023</v>
+        <v>10032</v>
       </c>
       <c r="D156">
         <v>2093</v>
       </c>
       <c r="E156">
-        <v>27995237</v>
+        <v>28033165</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -5202,13 +5202,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D158">
         <v>127</v>
       </c>
       <c r="E158">
-        <v>1350115</v>
+        <v>1355960</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -5231,13 +5231,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>43267</v>
+        <v>43334</v>
       </c>
       <c r="D159">
         <v>5415</v>
       </c>
       <c r="E159">
-        <v>100654132</v>
+        <v>100760409</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -5260,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="D160">
         <v>681</v>
       </c>
       <c r="E160">
-        <v>11802563</v>
+        <v>11805563</v>
       </c>
       <c r="F160" t="s">
         <v>23</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>189361</v>
+        <v>189645</v>
       </c>
       <c r="D164">
         <v>42573</v>
       </c>
       <c r="E164">
-        <v>362094740</v>
+        <v>362574558</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="D169">
         <v>499</v>
       </c>
       <c r="E169">
-        <v>22988455</v>
+        <v>22997028</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5579,13 +5579,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>90539</v>
+        <v>90638</v>
       </c>
       <c r="D171">
         <v>18282</v>
       </c>
       <c r="E171">
-        <v>461991249</v>
+        <v>462803541</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5608,13 +5608,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D172">
         <v>40</v>
       </c>
       <c r="E172">
-        <v>4126763</v>
+        <v>4146954</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>37905</v>
+        <v>37954</v>
       </c>
       <c r="D174">
         <v>7151</v>
       </c>
       <c r="E174">
-        <v>216594892</v>
+        <v>216967346</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="D176">
         <v>681</v>
       </c>
       <c r="E176">
-        <v>6493754</v>
+        <v>6506485</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -5753,13 +5753,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>6405</v>
+        <v>6409</v>
       </c>
       <c r="D177">
         <v>1155</v>
       </c>
       <c r="E177">
-        <v>26973771</v>
+        <v>27003911</v>
       </c>
       <c r="F177" t="s">
         <v>24</v>
@@ -5782,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>499242</v>
+        <v>500033</v>
       </c>
       <c r="D178">
-        <v>115226</v>
+        <v>115229</v>
       </c>
       <c r="E178">
-        <v>871389080</v>
+        <v>872828646</v>
       </c>
       <c r="F178" t="s">
         <v>25</v>
@@ -5840,13 +5840,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D180">
         <v>96</v>
       </c>
       <c r="E180">
-        <v>1422087</v>
+        <v>1428484</v>
       </c>
       <c r="F180" t="s">
         <v>25</v>
@@ -5956,13 +5956,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>3387</v>
+        <v>3393</v>
       </c>
       <c r="D184">
         <v>564</v>
       </c>
       <c r="E184">
-        <v>21671457</v>
+        <v>21710714</v>
       </c>
       <c r="F184" t="s">
         <v>25</v>
@@ -6014,13 +6014,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>223773</v>
+        <v>224003</v>
       </c>
       <c r="D186">
         <v>46227</v>
       </c>
       <c r="E186">
-        <v>1112137738</v>
+        <v>1114291148</v>
       </c>
       <c r="F186" t="s">
         <v>25</v>
@@ -6101,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>94264</v>
+        <v>94370</v>
       </c>
       <c r="D189">
         <v>18224</v>
       </c>
       <c r="E189">
-        <v>505612509</v>
+        <v>506439815</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>15526</v>
+        <v>15549</v>
       </c>
       <c r="D192">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="E192">
-        <v>76372091</v>
+        <v>76549561</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>16921</v>
+        <v>16951</v>
       </c>
       <c r="D194">
         <v>2978</v>
       </c>
       <c r="E194">
-        <v>64747820</v>
+        <v>64812569</v>
       </c>
       <c r="F194" t="s">
         <v>25</v>
@@ -6304,13 +6304,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>577226</v>
+        <v>578281</v>
       </c>
       <c r="D196">
-        <v>126986</v>
+        <v>126990</v>
       </c>
       <c r="E196">
-        <v>964723115</v>
+        <v>966429012</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
@@ -6478,13 +6478,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="D202">
         <v>369</v>
       </c>
       <c r="E202">
-        <v>16296946</v>
+        <v>16326159</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>251822</v>
+        <v>252101</v>
       </c>
       <c r="D204">
-        <v>49686</v>
+        <v>49688</v>
       </c>
       <c r="E204">
-        <v>1195689373</v>
+        <v>1197493192</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>146298</v>
+        <v>146485</v>
       </c>
       <c r="D207">
-        <v>27006</v>
+        <v>27007</v>
       </c>
       <c r="E207">
-        <v>696739993</v>
+        <v>697803729</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -6710,13 +6710,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>11550</v>
+        <v>11567</v>
       </c>
       <c r="D210">
         <v>3228</v>
       </c>
       <c r="E210">
-        <v>39653854</v>
+        <v>39723180</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -6797,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>21544</v>
+        <v>21568</v>
       </c>
       <c r="D213">
         <v>3526</v>
       </c>
       <c r="E213">
-        <v>79433365</v>
+        <v>79520373</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>222449</v>
+        <v>222761</v>
       </c>
       <c r="D215">
-        <v>52353</v>
+        <v>52354</v>
       </c>
       <c r="E215">
-        <v>399777574</v>
+        <v>400423359</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6971,13 +6971,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="D219">
         <v>423</v>
       </c>
       <c r="E219">
-        <v>18516742</v>
+        <v>18536742</v>
       </c>
       <c r="F219" t="s">
         <v>27</v>
@@ -7029,13 +7029,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>127916</v>
+        <v>128062</v>
       </c>
       <c r="D221">
         <v>27125</v>
       </c>
       <c r="E221">
-        <v>642071602</v>
+        <v>643102777</v>
       </c>
       <c r="F221" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>37016</v>
+        <v>37069</v>
       </c>
       <c r="D224">
         <v>7171</v>
       </c>
       <c r="E224">
-        <v>228367014</v>
+        <v>228711260</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>4159</v>
+        <v>4162</v>
       </c>
       <c r="D226">
         <v>1259</v>
       </c>
       <c r="E226">
-        <v>15272869</v>
+        <v>15286655</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7232,13 +7232,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>9062</v>
+        <v>9072</v>
       </c>
       <c r="D228">
         <v>1573</v>
       </c>
       <c r="E228">
-        <v>38817501</v>
+        <v>38846852</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
@@ -7261,13 +7261,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>592222</v>
+        <v>593349</v>
       </c>
       <c r="D229">
-        <v>121088</v>
+        <v>121094</v>
       </c>
       <c r="E229">
-        <v>1018065596</v>
+        <v>1020008947</v>
       </c>
       <c r="F229" t="s">
         <v>28</v>
@@ -7319,13 +7319,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D231">
         <v>127</v>
       </c>
       <c r="E231">
-        <v>2500328</v>
+        <v>2514664</v>
       </c>
       <c r="F231" t="s">
         <v>28</v>
@@ -7435,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="D235">
         <v>601</v>
       </c>
       <c r="E235">
-        <v>31428063</v>
+        <v>31464932</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>268028</v>
+        <v>268341</v>
       </c>
       <c r="D237">
-        <v>49691</v>
+        <v>49692</v>
       </c>
       <c r="E237">
-        <v>1343495617</v>
+        <v>1345812995</v>
       </c>
       <c r="F237" t="s">
         <v>28</v>
@@ -7522,13 +7522,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D238">
         <v>148</v>
       </c>
       <c r="E238">
-        <v>22904706</v>
+        <v>23138106</v>
       </c>
       <c r="F238" t="s">
         <v>28</v>
@@ -7580,13 +7580,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>194084</v>
+        <v>194367</v>
       </c>
       <c r="D240">
-        <v>33867</v>
+        <v>33869</v>
       </c>
       <c r="E240">
-        <v>969777318</v>
+        <v>971474156</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -7667,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>6815</v>
+        <v>6818</v>
       </c>
       <c r="D243">
         <v>1812</v>
       </c>
       <c r="E243">
-        <v>25507638</v>
+        <v>25513755</v>
       </c>
       <c r="F243" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>17159</v>
+        <v>17178</v>
       </c>
       <c r="D246">
         <v>2712</v>
       </c>
       <c r="E246">
-        <v>64883491</v>
+        <v>64958105</v>
       </c>
       <c r="F246" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>739384</v>
+        <v>741094</v>
       </c>
       <c r="D2">
-        <v>155781</v>
+        <v>155800</v>
       </c>
       <c r="E2">
-        <v>1390772768</v>
+        <v>1395820861</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>1910835</v>
+        <v>1930432</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D4">
         <v>177</v>
       </c>
       <c r="E4">
-        <v>4623453</v>
+        <v>4646518</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -823,13 +823,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>1023720</v>
+        <v>1031146</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3849</v>
+        <v>3862</v>
       </c>
       <c r="D8">
         <v>617</v>
       </c>
       <c r="E8">
-        <v>27535033</v>
+        <v>27733696</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>324403</v>
+        <v>325627</v>
       </c>
       <c r="D10">
-        <v>64049</v>
+        <v>64057</v>
       </c>
       <c r="E10">
-        <v>1693657911</v>
+        <v>1703633180</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="D11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E11">
-        <v>35555531</v>
+        <v>36499859</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>5098828</v>
+        <v>5197839</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>174803</v>
+        <v>175421</v>
       </c>
       <c r="D13">
-        <v>33033</v>
+        <v>33041</v>
       </c>
       <c r="E13">
-        <v>1027576252</v>
+        <v>1034211066</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9777</v>
+        <v>9807</v>
       </c>
       <c r="D16">
         <v>2981</v>
       </c>
       <c r="E16">
-        <v>26458103</v>
+        <v>26542185</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>25023</v>
+        <v>25119</v>
       </c>
       <c r="D19">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E19">
-        <v>112616053</v>
+        <v>113214131</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1200,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>124903</v>
+        <v>128830</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>169517</v>
+        <v>169952</v>
       </c>
       <c r="D21">
-        <v>38005</v>
+        <v>38007</v>
       </c>
       <c r="E21">
-        <v>310372197</v>
+        <v>311611227</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1287,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23">
-        <v>309876</v>
+        <v>319876</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D26">
         <v>171</v>
       </c>
       <c r="E26">
-        <v>6186554</v>
+        <v>6196554</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>85134</v>
+        <v>85524</v>
       </c>
       <c r="D27">
         <v>17532</v>
       </c>
       <c r="E27">
-        <v>417326246</v>
+        <v>420519442</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D28">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>6551792</v>
+        <v>6690020</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>33018</v>
+        <v>33156</v>
       </c>
       <c r="D30">
-        <v>6500</v>
+        <v>6501</v>
       </c>
       <c r="E30">
-        <v>177719644</v>
+        <v>178765135</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1548,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>227219</v>
+        <v>228719</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="D33">
         <v>1328</v>
       </c>
       <c r="E33">
-        <v>19323163</v>
+        <v>19351398</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>6437</v>
+        <v>6461</v>
       </c>
       <c r="D35">
         <v>1087</v>
       </c>
       <c r="E35">
-        <v>28927831</v>
+        <v>29083727</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>204503</v>
+        <v>204962</v>
       </c>
       <c r="D36">
-        <v>48104</v>
+        <v>48106</v>
       </c>
       <c r="E36">
-        <v>396485179</v>
+        <v>398006876</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1693,13 +1693,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37">
         <v>33</v>
       </c>
       <c r="E37">
-        <v>206196</v>
+        <v>208272</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -1722,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D38">
         <v>41</v>
       </c>
       <c r="E38">
-        <v>744968</v>
+        <v>754968</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4672</v>
+        <v>4693</v>
       </c>
       <c r="D39">
         <v>643</v>
       </c>
       <c r="E39">
-        <v>31455391</v>
+        <v>31569821</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>120661</v>
+        <v>121141</v>
       </c>
       <c r="D41">
-        <v>24225</v>
+        <v>24227</v>
       </c>
       <c r="E41">
-        <v>629863508</v>
+        <v>633793888</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>27776</v>
+        <v>27881</v>
       </c>
       <c r="D44">
         <v>5489</v>
       </c>
       <c r="E44">
-        <v>181176609</v>
+        <v>182141515</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1925,13 +1925,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>6</v>
       </c>
       <c r="E45">
-        <v>525932</v>
+        <v>526966</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2757</v>
+        <v>2762</v>
       </c>
       <c r="D46">
         <v>832</v>
       </c>
       <c r="E46">
-        <v>7841514</v>
+        <v>7874847</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8616</v>
+        <v>8653</v>
       </c>
       <c r="D47">
         <v>1463</v>
       </c>
       <c r="E47">
-        <v>40185666</v>
+        <v>40525263</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>145758</v>
+        <v>146054</v>
       </c>
       <c r="D48">
-        <v>33482</v>
+        <v>33483</v>
       </c>
       <c r="E48">
-        <v>269437972</v>
+        <v>270365933</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2070,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>490818</v>
+        <v>500818</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2128,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="D52">
         <v>257</v>
       </c>
       <c r="E52">
-        <v>9730172</v>
+        <v>9760400</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>71183</v>
+        <v>71430</v>
       </c>
       <c r="D54">
-        <v>14891</v>
+        <v>14893</v>
       </c>
       <c r="E54">
-        <v>338054878</v>
+        <v>339862677</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2215,13 +2215,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D55">
         <v>43</v>
       </c>
       <c r="E55">
-        <v>4433841</v>
+        <v>4449460</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>29777</v>
+        <v>29894</v>
       </c>
       <c r="D57">
         <v>5990</v>
       </c>
       <c r="E57">
-        <v>149633372</v>
+        <v>150468603</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>3462</v>
+        <v>3467</v>
       </c>
       <c r="D59">
         <v>938</v>
       </c>
       <c r="E59">
-        <v>15056420</v>
+        <v>15121020</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5607</v>
+        <v>5630</v>
       </c>
       <c r="D61">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E61">
-        <v>22081066</v>
+        <v>22235209</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>47748</v>
+        <v>47844</v>
       </c>
       <c r="D63">
-        <v>9521</v>
+        <v>9523</v>
       </c>
       <c r="E63">
-        <v>101523812</v>
+        <v>101849639</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>25903</v>
+        <v>26007</v>
       </c>
       <c r="D67">
         <v>4259</v>
       </c>
       <c r="E67">
-        <v>159839783</v>
+        <v>160944552</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2592,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68">
         <v>16</v>
       </c>
       <c r="E68">
-        <v>1581049</v>
+        <v>1674987</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>17051</v>
+        <v>17090</v>
       </c>
       <c r="D69">
         <v>2894</v>
       </c>
       <c r="E69">
-        <v>98193889</v>
+        <v>98485450</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2650,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D70">
         <v>263</v>
       </c>
       <c r="E70">
-        <v>3886971</v>
+        <v>3893623</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>319131</v>
+        <v>319934</v>
       </c>
       <c r="D72">
-        <v>71583</v>
+        <v>71591</v>
       </c>
       <c r="E72">
-        <v>618273201</v>
+        <v>620786498</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2737,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D73">
         <v>101</v>
       </c>
       <c r="E73">
-        <v>1770667</v>
+        <v>1789406</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1979</v>
+        <v>1994</v>
       </c>
       <c r="D76">
         <v>312</v>
       </c>
       <c r="E76">
-        <v>12153120</v>
+        <v>12229868</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2853,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <v>9</v>
       </c>
       <c r="E77">
-        <v>671224</v>
+        <v>891672</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>167687</v>
+        <v>168288</v>
       </c>
       <c r="D78">
-        <v>34647</v>
+        <v>34649</v>
       </c>
       <c r="E78">
-        <v>832805797</v>
+        <v>838175101</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D79">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E79">
-        <v>16032531</v>
+        <v>16061730</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -2940,13 +2940,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D80">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>4569518</v>
+        <v>4579518</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>82466</v>
+        <v>82769</v>
       </c>
       <c r="D81">
-        <v>16514</v>
+        <v>16518</v>
       </c>
       <c r="E81">
-        <v>446867213</v>
+        <v>449564013</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3027,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D83">
         <v>168</v>
       </c>
       <c r="E83">
-        <v>15376287</v>
+        <v>15458886</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>25201</v>
+        <v>25348</v>
       </c>
       <c r="D84">
-        <v>6715</v>
+        <v>6719</v>
       </c>
       <c r="E84">
-        <v>145079078</v>
+        <v>146079679</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>10267</v>
+        <v>10310</v>
       </c>
       <c r="D86">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E86">
-        <v>45024435</v>
+        <v>45347721</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3143,13 +3143,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87">
-        <v>129531</v>
+        <v>139531</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>61665</v>
+        <v>61802</v>
       </c>
       <c r="D88">
-        <v>12266</v>
+        <v>12267</v>
       </c>
       <c r="E88">
-        <v>98150108</v>
+        <v>98494197</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3230,13 +3230,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D90">
         <v>13</v>
       </c>
       <c r="E90">
-        <v>518289</v>
+        <v>519250</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>15084</v>
+        <v>15142</v>
       </c>
       <c r="D91">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="E91">
-        <v>49767621</v>
+        <v>50403015</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3288,13 +3288,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>7</v>
       </c>
       <c r="E92">
-        <v>686380</v>
+        <v>820747</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13888</v>
+        <v>13914</v>
       </c>
       <c r="D93">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="E93">
-        <v>36390593</v>
+        <v>36510209</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3346,13 +3346,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D94">
         <v>201</v>
       </c>
       <c r="E94">
-        <v>1583285</v>
+        <v>1590596</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3375,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D95">
         <v>192</v>
       </c>
       <c r="E95">
-        <v>1440969</v>
+        <v>1443197</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>24923</v>
+        <v>24984</v>
       </c>
       <c r="D96">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="E96">
-        <v>49755521</v>
+        <v>49847854</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>5339</v>
+        <v>5354</v>
       </c>
       <c r="D98">
         <v>901</v>
       </c>
       <c r="E98">
-        <v>15334314</v>
+        <v>15411130</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -3520,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>7886</v>
+        <v>7900</v>
       </c>
       <c r="D100">
         <v>1264</v>
       </c>
       <c r="E100">
-        <v>19679867</v>
+        <v>19736991</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -3578,13 +3578,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D102">
         <v>56</v>
       </c>
       <c r="E102">
-        <v>624998</v>
+        <v>626498</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>308763</v>
+        <v>309383</v>
       </c>
       <c r="D104">
-        <v>67848</v>
+        <v>67853</v>
       </c>
       <c r="E104">
-        <v>549818808</v>
+        <v>551403956</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>4431</v>
+        <v>4461</v>
       </c>
       <c r="D110">
         <v>620</v>
       </c>
       <c r="E110">
-        <v>26736023</v>
+        <v>26943289</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>136842</v>
+        <v>137336</v>
       </c>
       <c r="D112">
-        <v>27799</v>
+        <v>27801</v>
       </c>
       <c r="E112">
-        <v>668020552</v>
+        <v>671822648</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -3897,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E113">
-        <v>13013987</v>
+        <v>13387878</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>76501</v>
+        <v>76791</v>
       </c>
       <c r="D115">
-        <v>14381</v>
+        <v>14388</v>
       </c>
       <c r="E115">
-        <v>395596503</v>
+        <v>398360727</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -3984,13 +3984,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
       <c r="E116">
-        <v>411794</v>
+        <v>413294</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>3584</v>
+        <v>3595</v>
       </c>
       <c r="D118">
         <v>1089</v>
       </c>
       <c r="E118">
-        <v>11622134</v>
+        <v>11685900</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>8309</v>
+        <v>8352</v>
       </c>
       <c r="D119">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E119">
-        <v>33918718</v>
+        <v>34207515</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1239082</v>
+        <v>1241409</v>
       </c>
       <c r="D121">
-        <v>220016</v>
+        <v>220034</v>
       </c>
       <c r="E121">
-        <v>2200184531</v>
+        <v>2205594882</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4158,13 +4158,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D122">
         <v>47</v>
       </c>
       <c r="E122">
-        <v>965084</v>
+        <v>966584</v>
       </c>
       <c r="F122" t="s">
         <v>20</v>
@@ -4187,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D123">
         <v>130</v>
       </c>
       <c r="E123">
-        <v>3796483</v>
+        <v>3835333</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -4245,13 +4245,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D125">
         <v>13</v>
       </c>
       <c r="E125">
-        <v>419952</v>
+        <v>422952</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>7845</v>
+        <v>7896</v>
       </c>
       <c r="D127">
         <v>1291</v>
       </c>
       <c r="E127">
-        <v>91333680</v>
+        <v>92239932</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D128">
         <v>37</v>
       </c>
       <c r="E128">
-        <v>4878621</v>
+        <v>5078621</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>576611</v>
+        <v>578428</v>
       </c>
       <c r="D129">
-        <v>104634</v>
+        <v>104643</v>
       </c>
       <c r="E129">
-        <v>2953248870</v>
+        <v>2970888951</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4390,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>3404</v>
+        <v>3420</v>
       </c>
       <c r="D130">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E130">
-        <v>97528237</v>
+        <v>98608661</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D131">
         <v>53</v>
       </c>
       <c r="E131">
-        <v>13801505</v>
+        <v>13854591</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>532096</v>
+        <v>533596</v>
       </c>
       <c r="D132">
-        <v>90178</v>
+        <v>90192</v>
       </c>
       <c r="E132">
-        <v>2819226389</v>
+        <v>2839142583</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4506,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>6619</v>
+        <v>6626</v>
       </c>
       <c r="D134">
         <v>1670</v>
       </c>
       <c r="E134">
-        <v>15304402</v>
+        <v>15323520</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>23709</v>
+        <v>23809</v>
       </c>
       <c r="D136">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E136">
-        <v>113504487</v>
+        <v>114397394</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
@@ -4651,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>71469</v>
+        <v>71579</v>
       </c>
       <c r="D139">
-        <v>17462</v>
+        <v>17464</v>
       </c>
       <c r="E139">
-        <v>108476776</v>
+        <v>108717425</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>21899</v>
+        <v>21986</v>
       </c>
       <c r="D144">
-        <v>6122</v>
+        <v>6124</v>
       </c>
       <c r="E144">
-        <v>68862250</v>
+        <v>69611106</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>6408</v>
+        <v>6433</v>
       </c>
       <c r="D146">
         <v>1634</v>
       </c>
       <c r="E146">
-        <v>22776063</v>
+        <v>23122316</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>33473</v>
+        <v>33527</v>
       </c>
       <c r="D151">
         <v>7102</v>
       </c>
       <c r="E151">
-        <v>52970745</v>
+        <v>53076113</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>14307</v>
+        <v>14343</v>
       </c>
       <c r="D154">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E154">
-        <v>48639542</v>
+        <v>48966221</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5115,13 +5115,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D155">
         <v>7</v>
       </c>
       <c r="E155">
-        <v>816778</v>
+        <v>1216778</v>
       </c>
       <c r="F155" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>10032</v>
+        <v>10054</v>
       </c>
       <c r="D156">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E156">
-        <v>28033165</v>
+        <v>28135731</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -5202,13 +5202,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D158">
         <v>127</v>
       </c>
       <c r="E158">
-        <v>1355960</v>
+        <v>1365960</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -5231,13 +5231,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>43334</v>
+        <v>43377</v>
       </c>
       <c r="D159">
         <v>5415</v>
       </c>
       <c r="E159">
-        <v>100760409</v>
+        <v>100825171</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -5260,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>4094</v>
+        <v>4102</v>
       </c>
       <c r="D160">
         <v>681</v>
       </c>
       <c r="E160">
-        <v>11805563</v>
+        <v>11844913</v>
       </c>
       <c r="F160" t="s">
         <v>23</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>189645</v>
+        <v>190121</v>
       </c>
       <c r="D164">
-        <v>42573</v>
+        <v>42578</v>
       </c>
       <c r="E164">
-        <v>362574558</v>
+        <v>363942845</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>3311</v>
+        <v>3327</v>
       </c>
       <c r="D169">
         <v>499</v>
       </c>
       <c r="E169">
-        <v>22997028</v>
+        <v>23168787</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5579,13 +5579,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>90638</v>
+        <v>90981</v>
       </c>
       <c r="D171">
         <v>18282</v>
       </c>
       <c r="E171">
-        <v>462803541</v>
+        <v>465814899</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>37954</v>
+        <v>38091</v>
       </c>
       <c r="D174">
         <v>7151</v>
       </c>
       <c r="E174">
-        <v>216967346</v>
+        <v>218456641</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="D176">
         <v>681</v>
       </c>
       <c r="E176">
-        <v>6506485</v>
+        <v>6514363</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -5753,13 +5753,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>6409</v>
+        <v>6431</v>
       </c>
       <c r="D177">
         <v>1155</v>
       </c>
       <c r="E177">
-        <v>27003911</v>
+        <v>27118335</v>
       </c>
       <c r="F177" t="s">
         <v>24</v>
@@ -5782,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>500033</v>
+        <v>501109</v>
       </c>
       <c r="D178">
-        <v>115229</v>
+        <v>115235</v>
       </c>
       <c r="E178">
-        <v>872828646</v>
+        <v>875699339</v>
       </c>
       <c r="F178" t="s">
         <v>25</v>
@@ -5811,13 +5811,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D179">
         <v>68</v>
       </c>
       <c r="E179">
-        <v>723630</v>
+        <v>736730</v>
       </c>
       <c r="F179" t="s">
         <v>25</v>
@@ -5840,13 +5840,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D180">
         <v>96</v>
       </c>
       <c r="E180">
-        <v>1428484</v>
+        <v>1437503</v>
       </c>
       <c r="F180" t="s">
         <v>25</v>
@@ -5956,13 +5956,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>3393</v>
+        <v>3404</v>
       </c>
       <c r="D184">
         <v>564</v>
       </c>
       <c r="E184">
-        <v>21710714</v>
+        <v>21842041</v>
       </c>
       <c r="F184" t="s">
         <v>25</v>
@@ -6014,13 +6014,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>224003</v>
+        <v>224834</v>
       </c>
       <c r="D186">
-        <v>46227</v>
+        <v>46234</v>
       </c>
       <c r="E186">
-        <v>1114291148</v>
+        <v>1121765839</v>
       </c>
       <c r="F186" t="s">
         <v>25</v>
@@ -6043,13 +6043,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D187">
         <v>132</v>
       </c>
       <c r="E187">
-        <v>18765623</v>
+        <v>18913353</v>
       </c>
       <c r="F187" t="s">
         <v>25</v>
@@ -6101,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>94370</v>
+        <v>94716</v>
       </c>
       <c r="D189">
-        <v>18224</v>
+        <v>18228</v>
       </c>
       <c r="E189">
-        <v>506439815</v>
+        <v>509147454</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -6159,13 +6159,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D191">
         <v>18</v>
       </c>
       <c r="E191">
-        <v>748267</v>
+        <v>749767</v>
       </c>
       <c r="F191" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>15549</v>
+        <v>15613</v>
       </c>
       <c r="D192">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E192">
-        <v>76549561</v>
+        <v>77048778</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>16951</v>
+        <v>17030</v>
       </c>
       <c r="D194">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="E194">
-        <v>64812569</v>
+        <v>65258723</v>
       </c>
       <c r="F194" t="s">
         <v>25</v>
@@ -6304,13 +6304,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>578281</v>
+        <v>579439</v>
       </c>
       <c r="D196">
-        <v>126990</v>
+        <v>127002</v>
       </c>
       <c r="E196">
-        <v>966429012</v>
+        <v>969286438</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
@@ -6333,13 +6333,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D197">
         <v>74</v>
       </c>
       <c r="E197">
-        <v>773016</v>
+        <v>778991</v>
       </c>
       <c r="F197" t="s">
         <v>26</v>
@@ -6362,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D198">
         <v>134</v>
       </c>
       <c r="E198">
-        <v>2206070</v>
+        <v>2220728</v>
       </c>
       <c r="F198" t="s">
         <v>26</v>
@@ -6478,13 +6478,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>2326</v>
+        <v>2335</v>
       </c>
       <c r="D202">
         <v>369</v>
       </c>
       <c r="E202">
-        <v>16326159</v>
+        <v>16439711</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>252101</v>
+        <v>253028</v>
       </c>
       <c r="D204">
-        <v>49688</v>
+        <v>49692</v>
       </c>
       <c r="E204">
-        <v>1197493192</v>
+        <v>1204913886</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6565,13 +6565,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D205">
         <v>137</v>
       </c>
       <c r="E205">
-        <v>18655848</v>
+        <v>18688058</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -6594,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D206">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>3048785</v>
+        <v>3099747</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>146485</v>
+        <v>146939</v>
       </c>
       <c r="D207">
-        <v>27007</v>
+        <v>27010</v>
       </c>
       <c r="E207">
-        <v>697803729</v>
+        <v>701434822</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -6710,13 +6710,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>11567</v>
+        <v>11589</v>
       </c>
       <c r="D210">
         <v>3228</v>
       </c>
       <c r="E210">
-        <v>39723180</v>
+        <v>39868139</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -6739,13 +6739,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D211">
         <v>3</v>
       </c>
       <c r="E211">
-        <v>99387</v>
+        <v>100456</v>
       </c>
       <c r="F211" t="s">
         <v>26</v>
@@ -6797,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>21568</v>
+        <v>21670</v>
       </c>
       <c r="D213">
         <v>3526</v>
       </c>
       <c r="E213">
-        <v>79520373</v>
+        <v>80114400</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>222761</v>
+        <v>223146</v>
       </c>
       <c r="D215">
-        <v>52354</v>
+        <v>52358</v>
       </c>
       <c r="E215">
-        <v>400423359</v>
+        <v>401414457</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6971,13 +6971,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>2862</v>
+        <v>2876</v>
       </c>
       <c r="D219">
         <v>423</v>
       </c>
       <c r="E219">
-        <v>18536742</v>
+        <v>18623931</v>
       </c>
       <c r="F219" t="s">
         <v>27</v>
@@ -7029,13 +7029,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>128062</v>
+        <v>128469</v>
       </c>
       <c r="D221">
-        <v>27125</v>
+        <v>27127</v>
       </c>
       <c r="E221">
-        <v>643102777</v>
+        <v>646984236</v>
       </c>
       <c r="F221" t="s">
         <v>27</v>
@@ -7058,13 +7058,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D222">
         <v>56</v>
       </c>
       <c r="E222">
-        <v>8030945</v>
+        <v>8113371</v>
       </c>
       <c r="F222" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>37069</v>
+        <v>37166</v>
       </c>
       <c r="D224">
         <v>7171</v>
       </c>
       <c r="E224">
-        <v>228711260</v>
+        <v>229870306</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>4162</v>
+        <v>4181</v>
       </c>
       <c r="D226">
         <v>1259</v>
       </c>
       <c r="E226">
-        <v>15286655</v>
+        <v>15415448</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7232,13 +7232,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>9072</v>
+        <v>9100</v>
       </c>
       <c r="D228">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="E228">
-        <v>38846852</v>
+        <v>39042370</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
@@ -7261,13 +7261,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>593349</v>
+        <v>594517</v>
       </c>
       <c r="D229">
-        <v>121094</v>
+        <v>121103</v>
       </c>
       <c r="E229">
-        <v>1020008947</v>
+        <v>1022966941</v>
       </c>
       <c r="F229" t="s">
         <v>28</v>
@@ -7290,13 +7290,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D230">
         <v>91</v>
       </c>
       <c r="E230">
-        <v>1086620</v>
+        <v>1091586</v>
       </c>
       <c r="F230" t="s">
         <v>28</v>
@@ -7319,13 +7319,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D231">
         <v>127</v>
       </c>
       <c r="E231">
-        <v>2514664</v>
+        <v>2527791</v>
       </c>
       <c r="F231" t="s">
         <v>28</v>
@@ -7435,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>4009</v>
+        <v>4024</v>
       </c>
       <c r="D235">
         <v>601</v>
       </c>
       <c r="E235">
-        <v>31464932</v>
+        <v>31684234</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>268341</v>
+        <v>269313</v>
       </c>
       <c r="D237">
-        <v>49692</v>
+        <v>49702</v>
       </c>
       <c r="E237">
-        <v>1345812995</v>
+        <v>1353135560</v>
       </c>
       <c r="F237" t="s">
         <v>28</v>
@@ -7522,13 +7522,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D238">
         <v>148</v>
       </c>
       <c r="E238">
-        <v>23138106</v>
+        <v>23447622</v>
       </c>
       <c r="F238" t="s">
         <v>28</v>
@@ -7551,13 +7551,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D239">
         <v>15</v>
       </c>
       <c r="E239">
-        <v>6045192</v>
+        <v>6052295</v>
       </c>
       <c r="F239" t="s">
         <v>28</v>
@@ -7580,13 +7580,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>194367</v>
+        <v>195032</v>
       </c>
       <c r="D240">
-        <v>33869</v>
+        <v>33874</v>
       </c>
       <c r="E240">
-        <v>971474156</v>
+        <v>977016523</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -7638,13 +7638,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D242">
         <v>28</v>
       </c>
       <c r="E242">
-        <v>5113026</v>
+        <v>5201419</v>
       </c>
       <c r="F242" t="s">
         <v>28</v>
@@ -7667,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>6818</v>
+        <v>6838</v>
       </c>
       <c r="D243">
         <v>1812</v>
       </c>
       <c r="E243">
-        <v>25513755</v>
+        <v>25633040</v>
       </c>
       <c r="F243" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>17178</v>
+        <v>17252</v>
       </c>
       <c r="D246">
         <v>2712</v>
       </c>
       <c r="E246">
-        <v>64958105</v>
+        <v>65690477</v>
       </c>
       <c r="F246" t="s">
         <v>28</v>
@@ -7783,13 +7783,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D247">
         <v>4</v>
       </c>
       <c r="E247">
-        <v>299091</v>
+        <v>309091</v>
       </c>
       <c r="F247" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>741094</v>
+        <v>742528</v>
       </c>
       <c r="D2">
-        <v>155800</v>
+        <v>155813</v>
       </c>
       <c r="E2">
-        <v>1395820861</v>
+        <v>1400038677</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>1930432</v>
+        <v>1945531</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D4">
         <v>177</v>
       </c>
       <c r="E4">
-        <v>4646518</v>
+        <v>4666518</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3862</v>
+        <v>3879</v>
       </c>
       <c r="D8">
         <v>617</v>
       </c>
       <c r="E8">
-        <v>27733696</v>
+        <v>28024631</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>325627</v>
+        <v>326530</v>
       </c>
       <c r="D10">
-        <v>64057</v>
+        <v>64064</v>
       </c>
       <c r="E10">
-        <v>1703633180</v>
+        <v>1711120557</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="D11">
         <v>248</v>
       </c>
       <c r="E11">
-        <v>36499859</v>
+        <v>36721688</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>5197839</v>
+        <v>5397839</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>175421</v>
+        <v>175898</v>
       </c>
       <c r="D13">
-        <v>33041</v>
+        <v>33054</v>
       </c>
       <c r="E13">
-        <v>1034211066</v>
+        <v>1039930667</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9807</v>
+        <v>9841</v>
       </c>
       <c r="D16">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="E16">
-        <v>26542185</v>
+        <v>26656823</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>25119</v>
+        <v>25202</v>
       </c>
       <c r="D19">
         <v>4185</v>
       </c>
       <c r="E19">
-        <v>113214131</v>
+        <v>114264707</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>169952</v>
+        <v>170252</v>
       </c>
       <c r="D21">
-        <v>38007</v>
+        <v>38009</v>
       </c>
       <c r="E21">
-        <v>311611227</v>
+        <v>312418714</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="D26">
         <v>171</v>
       </c>
       <c r="E26">
-        <v>6196554</v>
+        <v>6213219</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>85524</v>
+        <v>85752</v>
       </c>
       <c r="D27">
-        <v>17532</v>
+        <v>17533</v>
       </c>
       <c r="E27">
-        <v>420519442</v>
+        <v>422679275</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D28">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>6690020</v>
+        <v>6754314</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>33156</v>
+        <v>33250</v>
       </c>
       <c r="D30">
-        <v>6501</v>
+        <v>6502</v>
       </c>
       <c r="E30">
-        <v>178765135</v>
+        <v>179849171</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4368</v>
+        <v>4382</v>
       </c>
       <c r="D33">
         <v>1328</v>
       </c>
       <c r="E33">
-        <v>19351398</v>
+        <v>19500268</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>6461</v>
+        <v>6483</v>
       </c>
       <c r="D35">
         <v>1087</v>
       </c>
       <c r="E35">
-        <v>29083727</v>
+        <v>29263900</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>204962</v>
+        <v>205303</v>
       </c>
       <c r="D36">
-        <v>48106</v>
+        <v>48110</v>
       </c>
       <c r="E36">
-        <v>398006876</v>
+        <v>398957183</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1722,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38">
         <v>41</v>
       </c>
       <c r="E38">
-        <v>754968</v>
+        <v>755523</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4693</v>
+        <v>4708</v>
       </c>
       <c r="D39">
         <v>643</v>
       </c>
       <c r="E39">
-        <v>31569821</v>
+        <v>31684038</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>121141</v>
+        <v>121434</v>
       </c>
       <c r="D41">
-        <v>24227</v>
+        <v>24230</v>
       </c>
       <c r="E41">
-        <v>633793888</v>
+        <v>636807718</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>27881</v>
+        <v>27969</v>
       </c>
       <c r="D44">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="E44">
-        <v>182141515</v>
+        <v>183476974</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8653</v>
+        <v>8695</v>
       </c>
       <c r="D47">
         <v>1463</v>
       </c>
       <c r="E47">
-        <v>40525263</v>
+        <v>40797014</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>146054</v>
+        <v>146265</v>
       </c>
       <c r="D48">
-        <v>33483</v>
+        <v>33486</v>
       </c>
       <c r="E48">
-        <v>270365933</v>
+        <v>270910717</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2041,13 +2041,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>147891</v>
+        <v>150765</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2128,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="D52">
         <v>257</v>
       </c>
       <c r="E52">
-        <v>9760400</v>
+        <v>9788373</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>71430</v>
+        <v>71602</v>
       </c>
       <c r="D54">
-        <v>14893</v>
+        <v>14894</v>
       </c>
       <c r="E54">
-        <v>339862677</v>
+        <v>341340601</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2215,13 +2215,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D55">
         <v>43</v>
       </c>
       <c r="E55">
-        <v>4449460</v>
+        <v>4564242</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>29894</v>
+        <v>29965</v>
       </c>
       <c r="D57">
         <v>5990</v>
       </c>
       <c r="E57">
-        <v>150468603</v>
+        <v>151048803</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>3467</v>
+        <v>3480</v>
       </c>
       <c r="D59">
         <v>938</v>
       </c>
       <c r="E59">
-        <v>15121020</v>
+        <v>15219421</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5630</v>
+        <v>5650</v>
       </c>
       <c r="D61">
         <v>1009</v>
       </c>
       <c r="E61">
-        <v>22235209</v>
+        <v>22320228</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>47844</v>
+        <v>47942</v>
       </c>
       <c r="D63">
-        <v>9523</v>
+        <v>9524</v>
       </c>
       <c r="E63">
-        <v>101849639</v>
+        <v>102234377</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2505,13 +2505,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <v>19</v>
       </c>
       <c r="E65">
-        <v>410167</v>
+        <v>411667</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>26007</v>
+        <v>26090</v>
       </c>
       <c r="D67">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="E67">
-        <v>160944552</v>
+        <v>161977415</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>17090</v>
+        <v>17129</v>
       </c>
       <c r="D69">
         <v>2894</v>
       </c>
       <c r="E69">
-        <v>98485450</v>
+        <v>98802449</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2650,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D70">
         <v>263</v>
       </c>
       <c r="E70">
-        <v>3893623</v>
+        <v>3908292</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D71">
         <v>158</v>
       </c>
       <c r="E71">
-        <v>3447754</v>
+        <v>3472635</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>319934</v>
+        <v>320579</v>
       </c>
       <c r="D72">
-        <v>71591</v>
+        <v>71593</v>
       </c>
       <c r="E72">
-        <v>620786498</v>
+        <v>622782196</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2737,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D73">
         <v>101</v>
       </c>
       <c r="E73">
-        <v>1789406</v>
+        <v>1790164</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -2766,13 +2766,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D74">
         <v>45</v>
       </c>
       <c r="E74">
-        <v>1045270</v>
+        <v>1070315</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D76">
         <v>312</v>
       </c>
       <c r="E76">
-        <v>12229868</v>
+        <v>12254339</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>168288</v>
+        <v>168755</v>
       </c>
       <c r="D78">
-        <v>34649</v>
+        <v>34655</v>
       </c>
       <c r="E78">
-        <v>838175101</v>
+        <v>842651310</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2940,13 +2940,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D80">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>4579518</v>
+        <v>4974453</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>82769</v>
+        <v>82979</v>
       </c>
       <c r="D81">
-        <v>16518</v>
+        <v>16521</v>
       </c>
       <c r="E81">
-        <v>449564013</v>
+        <v>451724858</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -2998,13 +2998,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D82">
         <v>21</v>
       </c>
       <c r="E82">
-        <v>137190</v>
+        <v>138466</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
@@ -3027,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D83">
         <v>168</v>
       </c>
       <c r="E83">
-        <v>15458886</v>
+        <v>15582140</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>25348</v>
+        <v>25500</v>
       </c>
       <c r="D84">
-        <v>6719</v>
+        <v>6720</v>
       </c>
       <c r="E84">
-        <v>146079679</v>
+        <v>147183058</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>10310</v>
+        <v>10366</v>
       </c>
       <c r="D86">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="E86">
-        <v>45347721</v>
+        <v>45711273</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>61802</v>
+        <v>61856</v>
       </c>
       <c r="D88">
         <v>12267</v>
       </c>
       <c r="E88">
-        <v>98494197</v>
+        <v>98601311</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>15142</v>
+        <v>15159</v>
       </c>
       <c r="D91">
         <v>3291</v>
       </c>
       <c r="E91">
-        <v>50403015</v>
+        <v>50836899</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13914</v>
+        <v>13919</v>
       </c>
       <c r="D93">
         <v>2816</v>
       </c>
       <c r="E93">
-        <v>36510209</v>
+        <v>36542246</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>24984</v>
+        <v>25025</v>
       </c>
       <c r="D96">
         <v>3738</v>
       </c>
       <c r="E96">
-        <v>49847854</v>
+        <v>49918489</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>5354</v>
+        <v>5361</v>
       </c>
       <c r="D98">
         <v>901</v>
       </c>
       <c r="E98">
-        <v>15411130</v>
+        <v>15463339</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -3520,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>7900</v>
+        <v>7915</v>
       </c>
       <c r="D100">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E100">
-        <v>19736991</v>
+        <v>19836690</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>309383</v>
+        <v>309884</v>
       </c>
       <c r="D104">
-        <v>67853</v>
+        <v>67858</v>
       </c>
       <c r="E104">
-        <v>551403956</v>
+        <v>552681409</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>4461</v>
+        <v>4484</v>
       </c>
       <c r="D110">
         <v>620</v>
       </c>
       <c r="E110">
-        <v>26943289</v>
+        <v>27227438</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>137336</v>
+        <v>137643</v>
       </c>
       <c r="D112">
-        <v>27801</v>
+        <v>27804</v>
       </c>
       <c r="E112">
-        <v>671822648</v>
+        <v>674640727</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -3897,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D113">
         <v>113</v>
       </c>
       <c r="E113">
-        <v>13387878</v>
+        <v>13401366</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -3926,13 +3926,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D114">
         <v>13</v>
       </c>
       <c r="E114">
-        <v>1661941</v>
+        <v>1672879</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>76791</v>
+        <v>76984</v>
       </c>
       <c r="D115">
-        <v>14388</v>
+        <v>14390</v>
       </c>
       <c r="E115">
-        <v>398360727</v>
+        <v>400084376</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -4013,13 +4013,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D117">
         <v>20</v>
       </c>
       <c r="E117">
-        <v>1111961</v>
+        <v>1119632</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="D118">
         <v>1089</v>
       </c>
       <c r="E118">
-        <v>11685900</v>
+        <v>11689256</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>8352</v>
+        <v>8379</v>
       </c>
       <c r="D119">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E119">
-        <v>34207515</v>
+        <v>34386049</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1241409</v>
+        <v>1243338</v>
       </c>
       <c r="D121">
-        <v>220034</v>
+        <v>220050</v>
       </c>
       <c r="E121">
-        <v>2205594882</v>
+        <v>2209790623</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4187,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D123">
         <v>130</v>
       </c>
       <c r="E123">
-        <v>3835333</v>
+        <v>3874331</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>7896</v>
+        <v>7924</v>
       </c>
       <c r="D127">
         <v>1291</v>
       </c>
       <c r="E127">
-        <v>92239932</v>
+        <v>93045284</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4332,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D128">
         <v>37</v>
       </c>
       <c r="E128">
-        <v>5078621</v>
+        <v>5088621</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>578428</v>
+        <v>579667</v>
       </c>
       <c r="D129">
-        <v>104643</v>
+        <v>104651</v>
       </c>
       <c r="E129">
-        <v>2970888951</v>
+        <v>2984541643</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4390,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>3420</v>
+        <v>3435</v>
       </c>
       <c r="D130">
         <v>610</v>
       </c>
       <c r="E130">
-        <v>98608661</v>
+        <v>99902313</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D131">
         <v>53</v>
       </c>
       <c r="E131">
-        <v>13854591</v>
+        <v>13962667</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>533596</v>
+        <v>534759</v>
       </c>
       <c r="D132">
-        <v>90192</v>
+        <v>90204</v>
       </c>
       <c r="E132">
-        <v>2839142583</v>
+        <v>2856269530</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4506,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>6626</v>
+        <v>6634</v>
       </c>
       <c r="D134">
         <v>1670</v>
       </c>
       <c r="E134">
-        <v>15323520</v>
+        <v>15389286</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>23809</v>
+        <v>23882</v>
       </c>
       <c r="D136">
-        <v>4227</v>
+        <v>4229</v>
       </c>
       <c r="E136">
-        <v>114397394</v>
+        <v>114888914</v>
       </c>
       <c r="F136" t="s">
         <v>20</v>
@@ -4651,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>71579</v>
+        <v>71674</v>
       </c>
       <c r="D139">
-        <v>17464</v>
+        <v>17466</v>
       </c>
       <c r="E139">
-        <v>108717425</v>
+        <v>108861436</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -4709,13 +4709,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D141">
         <v>9</v>
       </c>
       <c r="E141">
-        <v>114250</v>
+        <v>124132</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>21986</v>
+        <v>22017</v>
       </c>
       <c r="D144">
-        <v>6124</v>
+        <v>6125</v>
       </c>
       <c r="E144">
-        <v>69611106</v>
+        <v>69968313</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>6433</v>
+        <v>6440</v>
       </c>
       <c r="D146">
         <v>1634</v>
       </c>
       <c r="E146">
-        <v>23122316</v>
+        <v>23248247</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>33527</v>
+        <v>33565</v>
       </c>
       <c r="D151">
         <v>7102</v>
       </c>
       <c r="E151">
-        <v>53076113</v>
+        <v>53170671</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>14343</v>
+        <v>14364</v>
       </c>
       <c r="D154">
         <v>3212</v>
       </c>
       <c r="E154">
-        <v>48966221</v>
+        <v>49102589</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>10054</v>
+        <v>10058</v>
       </c>
       <c r="D156">
         <v>2094</v>
       </c>
       <c r="E156">
-        <v>28135731</v>
+        <v>28159293</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -5231,13 +5231,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>43377</v>
+        <v>43421</v>
       </c>
       <c r="D159">
         <v>5415</v>
       </c>
       <c r="E159">
-        <v>100825171</v>
+        <v>100891095</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -5260,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="D160">
         <v>681</v>
       </c>
       <c r="E160">
-        <v>11844913</v>
+        <v>11851233</v>
       </c>
       <c r="F160" t="s">
         <v>23</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>190121</v>
+        <v>190423</v>
       </c>
       <c r="D164">
-        <v>42578</v>
+        <v>42581</v>
       </c>
       <c r="E164">
-        <v>363942845</v>
+        <v>364883469</v>
       </c>
       <c r="F164" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>3327</v>
+        <v>3339</v>
       </c>
       <c r="D169">
         <v>499</v>
       </c>
       <c r="E169">
-        <v>23168787</v>
+        <v>23291953</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5579,13 +5579,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>90981</v>
+        <v>91203</v>
       </c>
       <c r="D171">
-        <v>18282</v>
+        <v>18284</v>
       </c>
       <c r="E171">
-        <v>465814899</v>
+        <v>467757458</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5608,13 +5608,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D172">
         <v>40</v>
       </c>
       <c r="E172">
-        <v>4146954</v>
+        <v>4225022</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>38091</v>
+        <v>38181</v>
       </c>
       <c r="D174">
         <v>7151</v>
       </c>
       <c r="E174">
-        <v>218456641</v>
+        <v>219495133</v>
       </c>
       <c r="F174" t="s">
         <v>24</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="D176">
         <v>681</v>
       </c>
       <c r="E176">
-        <v>6514363</v>
+        <v>6531748</v>
       </c>
       <c r="F176" t="s">
         <v>24</v>
@@ -5753,13 +5753,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>6431</v>
+        <v>6455</v>
       </c>
       <c r="D177">
         <v>1155</v>
       </c>
       <c r="E177">
-        <v>27118335</v>
+        <v>27364906</v>
       </c>
       <c r="F177" t="s">
         <v>24</v>
@@ -5782,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>501109</v>
+        <v>501990</v>
       </c>
       <c r="D178">
-        <v>115235</v>
+        <v>115246</v>
       </c>
       <c r="E178">
-        <v>875699339</v>
+        <v>877934368</v>
       </c>
       <c r="F178" t="s">
         <v>25</v>
@@ -5956,13 +5956,13 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>3404</v>
+        <v>3418</v>
       </c>
       <c r="D184">
         <v>564</v>
       </c>
       <c r="E184">
-        <v>21842041</v>
+        <v>22011619</v>
       </c>
       <c r="F184" t="s">
         <v>25</v>
@@ -6014,13 +6014,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>224834</v>
+        <v>225417</v>
       </c>
       <c r="D186">
-        <v>46234</v>
+        <v>46235</v>
       </c>
       <c r="E186">
-        <v>1121765839</v>
+        <v>1127189135</v>
       </c>
       <c r="F186" t="s">
         <v>25</v>
@@ -6043,13 +6043,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D187">
         <v>132</v>
       </c>
       <c r="E187">
-        <v>18913353</v>
+        <v>18941340</v>
       </c>
       <c r="F187" t="s">
         <v>25</v>
@@ -6101,13 +6101,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>94716</v>
+        <v>94971</v>
       </c>
       <c r="D189">
-        <v>18228</v>
+        <v>18229</v>
       </c>
       <c r="E189">
-        <v>509147454</v>
+        <v>511221655</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -6159,13 +6159,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D191">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E191">
-        <v>749767</v>
+        <v>904835</v>
       </c>
       <c r="F191" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>15613</v>
+        <v>15678</v>
       </c>
       <c r="D192">
-        <v>4249</v>
+        <v>4253</v>
       </c>
       <c r="E192">
-        <v>77048778</v>
+        <v>77590740</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>17030</v>
+        <v>17108</v>
       </c>
       <c r="D194">
         <v>2981</v>
       </c>
       <c r="E194">
-        <v>65258723</v>
+        <v>65631712</v>
       </c>
       <c r="F194" t="s">
         <v>25</v>
@@ -6304,13 +6304,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>579439</v>
+        <v>580445</v>
       </c>
       <c r="D196">
-        <v>127002</v>
+        <v>127012</v>
       </c>
       <c r="E196">
-        <v>969286438</v>
+        <v>971652339</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
@@ -6362,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D198">
         <v>134</v>
       </c>
       <c r="E198">
-        <v>2220728</v>
+        <v>2237794</v>
       </c>
       <c r="F198" t="s">
         <v>26</v>
@@ -6478,13 +6478,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>2335</v>
+        <v>2347</v>
       </c>
       <c r="D202">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E202">
-        <v>16439711</v>
+        <v>16666333</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>253028</v>
+        <v>253588</v>
       </c>
       <c r="D204">
-        <v>49692</v>
+        <v>49703</v>
       </c>
       <c r="E204">
-        <v>1204913886</v>
+        <v>1209221703</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6565,13 +6565,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D205">
         <v>137</v>
       </c>
       <c r="E205">
-        <v>18688058</v>
+        <v>18746222</v>
       </c>
       <c r="F205" t="s">
         <v>26</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>146939</v>
+        <v>147298</v>
       </c>
       <c r="D207">
-        <v>27010</v>
+        <v>27013</v>
       </c>
       <c r="E207">
-        <v>701434822</v>
+        <v>703934483</v>
       </c>
       <c r="F207" t="s">
         <v>26</v>
@@ -6710,13 +6710,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>11589</v>
+        <v>11627</v>
       </c>
       <c r="D210">
         <v>3228</v>
       </c>
       <c r="E210">
-        <v>39868139</v>
+        <v>40057953</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -6797,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>21670</v>
+        <v>21776</v>
       </c>
       <c r="D213">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="E213">
-        <v>80114400</v>
+        <v>80689760</v>
       </c>
       <c r="F213" t="s">
         <v>26</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>223146</v>
+        <v>223575</v>
       </c>
       <c r="D215">
-        <v>52358</v>
+        <v>52363</v>
       </c>
       <c r="E215">
-        <v>401414457</v>
+        <v>402544294</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6913,13 +6913,13 @@
         <v>10</v>
       </c>
       <c r="C217">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D217">
         <v>31</v>
       </c>
       <c r="E217">
-        <v>688895</v>
+        <v>704761</v>
       </c>
       <c r="F217" t="s">
         <v>27</v>
@@ -6971,13 +6971,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="D219">
         <v>423</v>
       </c>
       <c r="E219">
-        <v>18623931</v>
+        <v>18663181</v>
       </c>
       <c r="F219" t="s">
         <v>27</v>
@@ -7029,13 +7029,13 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>128469</v>
+        <v>128794</v>
       </c>
       <c r="D221">
-        <v>27127</v>
+        <v>27131</v>
       </c>
       <c r="E221">
-        <v>646984236</v>
+        <v>649673927</v>
       </c>
       <c r="F221" t="s">
         <v>27</v>
@@ -7058,13 +7058,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D222">
         <v>56</v>
       </c>
       <c r="E222">
-        <v>8113371</v>
+        <v>8145647</v>
       </c>
       <c r="F222" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>37166</v>
+        <v>37297</v>
       </c>
       <c r="D224">
         <v>7171</v>
       </c>
       <c r="E224">
-        <v>229870306</v>
+        <v>231750934</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>4181</v>
+        <v>4193</v>
       </c>
       <c r="D226">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E226">
-        <v>15415448</v>
+        <v>15490124</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7232,13 +7232,13 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>9100</v>
+        <v>9143</v>
       </c>
       <c r="D228">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="E228">
-        <v>39042370</v>
+        <v>39324735</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
@@ -7261,13 +7261,13 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <v>594517</v>
+        <v>595431</v>
       </c>
       <c r="D229">
-        <v>121103</v>
+        <v>121106</v>
       </c>
       <c r="E229">
-        <v>1022966941</v>
+        <v>1025139759</v>
       </c>
       <c r="F229" t="s">
         <v>28</v>
@@ -7290,13 +7290,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D230">
         <v>91</v>
       </c>
       <c r="E230">
-        <v>1091586</v>
+        <v>1097590</v>
       </c>
       <c r="F230" t="s">
         <v>28</v>
@@ -7319,13 +7319,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D231">
         <v>127</v>
       </c>
       <c r="E231">
-        <v>2527791</v>
+        <v>2537791</v>
       </c>
       <c r="F231" t="s">
         <v>28</v>
@@ -7435,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>4024</v>
+        <v>4034</v>
       </c>
       <c r="D235">
         <v>601</v>
       </c>
       <c r="E235">
-        <v>31684234</v>
+        <v>31817395</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>269313</v>
+        <v>269896</v>
       </c>
       <c r="D237">
-        <v>49702</v>
+        <v>49707</v>
       </c>
       <c r="E237">
-        <v>1353135560</v>
+        <v>1358760443</v>
       </c>
       <c r="F237" t="s">
         <v>28</v>
@@ -7522,13 +7522,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D238">
         <v>148</v>
       </c>
       <c r="E238">
-        <v>23447622</v>
+        <v>23457622</v>
       </c>
       <c r="F238" t="s">
         <v>28</v>
@@ -7580,13 +7580,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>195032</v>
+        <v>195466</v>
       </c>
       <c r="D240">
-        <v>33874</v>
+        <v>33877</v>
       </c>
       <c r="E240">
-        <v>977016523</v>
+        <v>981633557</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -7638,13 +7638,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D242">
         <v>28</v>
       </c>
       <c r="E242">
-        <v>5201419</v>
+        <v>5353017</v>
       </c>
       <c r="F242" t="s">
         <v>28</v>
@@ -7667,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>6838</v>
+        <v>6859</v>
       </c>
       <c r="D243">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E243">
-        <v>25633040</v>
+        <v>25818723</v>
       </c>
       <c r="F243" t="s">
         <v>28</v>
@@ -7696,13 +7696,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D244">
         <v>18</v>
       </c>
       <c r="E244">
-        <v>770904</v>
+        <v>806867</v>
       </c>
       <c r="F244" t="s">
         <v>28</v>
@@ -7754,13 +7754,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>17252</v>
+        <v>17315</v>
       </c>
       <c r="D246">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E246">
-        <v>65690477</v>
+        <v>66084238</v>
       </c>
       <c r="F246" t="s">
         <v>28</v>
